--- a/Библиотека_Robin.xlsx
+++ b/Библиотека_Robin.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="502">
   <si>
     <t>описание</t>
   </si>
@@ -96,10 +96,6 @@
     <t>Проверка, подходит ли контрол в качестве поля параметра</t>
   </si>
   <si>
-    <t xml:space="preserve">Если появляются новые типы контролов, для которых возможна передача значения как параметра  надо прописать в этом методе
-</t>
-  </si>
-  <si>
     <t>SubscribeControlTrigger</t>
   </si>
   <si>
@@ -130,21 +126,6 @@
     <t>Заполнить комбо результатами выполнения команды</t>
   </si>
   <si>
-    <t xml:space="preserve">Как обертка над ExecForm() контекста, с предустановкой, контролем возврата и получением результата.
-Подробности вызова редактора - см. в описании библиотеки
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Как обертка над ExecForm() контекста, с предустановкой, контролем возврата и обработкой результата.
-Подробности выбора из списка - см. в описании библиотеки
-</t>
-  </si>
-  <si>
-    <t>Для всех - на Enter и Leave (вход/выход)
-Для галок, радио, комбо и т.п. - на изменение состояния
-Новый тип контрола, обработка поведения которого требуется, нужно прописать здесь</t>
-  </si>
-  <si>
     <t>UiParamsEventArgs</t>
   </si>
   <si>
@@ -182,12 +163,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Для удобства запуска запроса с формы, из списка. С возможностью выдачи предварительного сообщения и обработки по нескольким записям. 
-Как обертка над GetTable() контекста. Возвращает полученный объект.
-Подробности  - см. в описании библиотеки
-</t>
-  </si>
-  <si>
     <t>grids</t>
   </si>
   <si>
@@ -198,10 +173,6 @@
   </si>
   <si>
     <t>uiParams</t>
-  </si>
-  <si>
-    <t>Dictionary&lt;DataList, List&lt;Control&gt;&gt;
-может быть изменен в событии CreateUiParamList</t>
   </si>
   <si>
     <t xml:space="preserve">Аргументы событий обработки полей параметров - 
@@ -212,9 +183,6 @@
     <t>ActiveCtrl</t>
   </si>
   <si>
-    <t>только get</t>
-  </si>
-  <si>
     <t>ActiveGrid</t>
   </si>
   <si>
@@ -255,10 +223,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Получить данные в процессе загрузки формы. Если нет - после запуска формы ждем нажатия кнопки (F5)
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Активный список формы
 </t>
   </si>
@@ -272,11 +236,6 @@
   </si>
   <si>
     <t xml:space="preserve">List&lt;DataList&gt; - списки на форме
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">нужно перечитать данные на форме (например изменились параметры)
-меняет цвет кнопки обновления
 </t>
   </si>
   <si>
@@ -312,10 +271,6 @@
   <si>
     <t xml:space="preserve">Установка загруженных значений полей параметров
 (параметр SelectFromListEventArgs)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Срабатывает в определенных событиях определенных контролов, на которые подписывается в SubscribeControlTrigger()  - это события изменения состояния (Checked, Selected, ...), входа (Enter), выхода (Leave)
 </t>
   </si>
   <si>
@@ -387,16 +342,6 @@
   <si>
     <t xml:space="preserve">Выбор из списка (при FormModes.GetResult)
 (параметр SelectFromListEventArgs)
-</t>
-  </si>
-  <si>
-    <t>содержит объект списка, ключ текущей записи и признак завершения обработки</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Срабатывает после выбора из списка, но до возвращения объекта из формы.
-Используется для коррекции выбранного объекта.
-Если установить признак завершения обработки, выбранный объект не попадет в Context.TransferObject и не будет установлен DialogResult.
-Выбранный объект - это объект "под строкой" списка (ActiveGrid.GetRowObject()) или список такихобъектов при множественном выборе.
 </t>
   </si>
   <si>
@@ -469,11 +414,6 @@
     <t>список контролов параметров для каждого списка</t>
   </si>
   <si>
-    <t xml:space="preserve">Подготавливает и возвращает список объектов для сохранения текущих значений параметров (uiParams) в базу/XML при закрытии формы.
-Запускает событие PrepareUiParamsForSave для возможности коррекции подготовленного списка.
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Запускает событие SetLoadedUiParams для возможности коррекции списка значений параметров, полученных из базы/XML при инициализации формы.
 Устанавливает полученные значения параметров в контролы из uiParams
 </t>
@@ -576,10 +516,6 @@
   </si>
   <si>
     <t>WhatsUp</t>
-  </si>
-  <si>
-    <t>Срабатывает по завершении OnMouseUp, OnKeyUp, LoadData, SetFilter
-Используется например для установки доступности кнопок в зависимости данных от текущей строки</t>
   </si>
   <si>
     <t xml:space="preserve">Срабатывает там же, где WhatsUp
@@ -647,14 +583,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">SQL-запрос, который можно затем использовать например в обработчике события GetData
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Идентификатор, по которому можно отработать логику получения данных - например достать запрос из настроек
-</t>
-  </si>
-  <si>
     <t>Цвет выделенных строк</t>
   </si>
   <si>
@@ -689,10 +617,6 @@
   </si>
   <si>
     <t xml:space="preserve">Управляет установками скрытого поля DataGridView - AutoGenerateColumns
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Устанавливает генерить ли автоматом столбцы грида на все поля полученных данных
 </t>
   </si>
   <si>
@@ -776,13 +700,6 @@
     <t>Запуск событий QueryParamsSet, QueryParamsCheck, GetData</t>
   </si>
   <si>
-    <t xml:space="preserve">В FormList подписан метод GridQueryParamsSet
-Вызывается в LoadData -&gt; OnGetData, перед QueryParamsCheck и GetData
-В качестве параметра получает extParams - как начальный набор параметров.
-Возвращает набор параметров для дальнейшей передачи в обработчики событий QueryParamsCheck и GetData
-</t>
-  </si>
-  <si>
     <t>Получить ключ из указанной или текущей строки</t>
   </si>
   <si>
@@ -801,17 +718,9 @@
     <t>Вызов формы выбора столбцов</t>
   </si>
   <si>
-    <t>Выдача содержимого грида в эксель</t>
-  </si>
-  <si>
     <t>Через метод расширения Extens.ToExcel()</t>
   </si>
   <si>
-    <t xml:space="preserve">Для получения снаружи контекста, режима, словаря параметров и ключа
-Инициализация свойств формы (+ override в наследниках для инициализации других свойств)
-</t>
-  </si>
-  <si>
     <t>Вызов формы поиска</t>
   </si>
   <si>
@@ -856,19 +765,10 @@
     <t>DataMapItem</t>
   </si>
   <si>
-    <t>устанвливается в true после сохранения
-используется для обновления списков при выходе</t>
-  </si>
-  <si>
     <t>Признак сохранения данных</t>
   </si>
   <si>
     <t>Признак изменения данных</t>
-  </si>
-  <si>
-    <t>устанавливается в false после сохранения 
-может быть установлен в true при необходимости - см.пример формы редактированя команды в Master
-перед закрытием формы проверяется на true</t>
   </si>
   <si>
     <t>DataLists</t>
@@ -1064,9 +964,6 @@
     <t>Событие инициализации формы в режиме просмотра</t>
   </si>
   <si>
-    <t>Данные для привязки к полю формы</t>
-  </si>
-  <si>
     <t>задает соответствие поля формы (контрола) и поля источника</t>
   </si>
   <si>
@@ -1075,10 +972,6 @@
   <si>
     <t>Уточнение параметров запроса
 (параметр типа CtrlProc.ParamsCheckEventArgs)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Срабатывает при запуске формы, после того как выполнены действия для формы в режиме просмотра - отключена видимость кнопки сохранения и сделаны недоступными поля
-</t>
   </si>
   <si>
     <t xml:space="preserve">списки обычно добавляются для показа дочерних записей для редакируемой записи
@@ -1091,8 +984,737 @@
 (параметр типа CtrlProc.ProcessDataEventArgs)</t>
   </si>
   <si>
+    <t xml:space="preserve">Срабатывает после стандартной установки привязок.
+Позволяет скорректировать существующие биндинги, добавить новые и т.п.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Срабатывает после GetData и заполнения DataMap, элементы которого формируются, если найдено соответствие имени поля источника данных и имени контрола формы.
+После события идет стандартная установка привязок к данным для контролов из DataMap (через Control.DataBindings.Add)
+</t>
+  </si>
+  <si>
+    <t>Подготовка данных перед привязкой к полям формы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Событие для сохранения данных
+(параметр типа CtrlProc.ProcessDataEventArgs)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проверка и уточнение параметров команды сохранения
+(параметр типа CtrlProc.ParamsCheckEventArgs)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Срабатывает перед событием SetData
+Получает объект CtrlProc.ParamsCheckEventArgs, у которого может быть скорректировано свойство Pars (словарь параметров), который предварительно заполняется данными из SourceObject.
+При выявлении ошибок может быть заполнен словарь CheckResult ("имя поля или контрола - сообщение") - для вывода предупреждений.
+После события вызывается команда, указанная в "Check…" (если она указана), которая таже может вернуть набор "имя - сообщение", который будет добавлен к CheckResult
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Запускается после инициализации формы, в конце OnLoad формы.
+Последовательно запускает:
+ - событие QueryParamsCheck
+ - событие GetData
+ - подготовку данных для биндинга и событие DataMapCreate
+ - стандартную процедуру биндинга
+ - событие AfterBinding
+ - если не режим новой записи - заполнение списков - через вызов метода LoadData для каждого списка, в который передаются данные из SourceObject
+</t>
+  </si>
+  <si>
+    <t>ExecSelectionFormEventArgs</t>
+  </si>
+  <si>
+    <t>SetResultEventArgs</t>
+  </si>
+  <si>
+    <t>Аргументы для события запуска формы для выбора</t>
+  </si>
+  <si>
+    <t>Аргументы для события обработки результата выбора</t>
+  </si>
+  <si>
+    <t>public get</t>
+  </si>
+  <si>
+    <t>SelectedObject</t>
+  </si>
+  <si>
+    <t>SelectedValues</t>
+  </si>
+  <si>
+    <t>Полученные значения</t>
+  </si>
+  <si>
+    <t>TargetObject</t>
+  </si>
+  <si>
+    <t>Целевой объект</t>
+  </si>
+  <si>
+    <t>Выбранный объект</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Объект-источник </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> = контексту приложения формы
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Возвращается из формы выбора - строка или словарь или произвольный объект
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Словарь строка-объект из выбранного объекта с учетом ResultMap
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KeyMap
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FilterMap
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ResultMap
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SelectionForm
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nullable
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Editable
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disabled
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t>Пары "поле целевого объекта = поле выбранного объекта"</t>
+  </si>
+  <si>
+    <t>Форма для выбора (код формы из настроек)</t>
+  </si>
+  <si>
+    <t>Признак - допустимо ли пустое значение</t>
+  </si>
+  <si>
+    <t>Признак - допустимо ли редактирование текста</t>
+  </si>
+  <si>
+    <t>Признак - элемент управления недоступен</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Если установлен и Editable = false, то при нажатии на Delete сбрасываются SelectedObject и SelectedValues и в TargetObject сбрасываются поля, указанные в ResultMap
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Должен быть установлен, если необходимо залочить контрол. Изменяет цвет и доступность выбора.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ExecSelectionForm
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SetResult
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AfterSetResult
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protected override </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OnDropDown
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OnSetResult
+</t>
+  </si>
+  <si>
+    <t>Переопределенный метод раскрытия списка</t>
+  </si>
+  <si>
+    <t>Вызов формы для выбора
+(параметр ExecSelectionFormEventArgs)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Обработка выбранного объекта
+(параметр SetResultEventArgs)
+</t>
+  </si>
+  <si>
+    <t>Обработчик результата</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Срабатывает в OnDropDown до вызова формы выбора. 
+Могут быть указаны доп.данные (+ к тому, что идет из SourceObject формы) и объект формы выбора (тогда будет проигнорировано свойство SelectionForm)
+Для отказа от последующего вызова формы выбора необходимо проставить признак обработки
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Запускает событие ExecSelectionForm
+Вызывает форму выбора через FormBase.ExecFormSelect(), передает ей обработчик OnSetResult
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Содержит словарь данных результата (из выбранного объекта, с учетом ResultMap)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Срабатывает до занесения данных результата в целевой объект.
+Служит для проверок, коррекций данных результата и занесения их еще куда-то…
+Для отказа от занесения данных результата в целевой объект необходимо проставить признак обработки
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Будет вызван в FormBase.ExecFormSelect(), если форма выбора вернула результат.
+Выбранный объект попадает в SelectedObject
+Запускает событие SetResult, передавая в параметре словарь данных результата (из выбранного объекта, с учетом ResultMap)
+Заносит данные результата в целевой объект.
+Запускает событие AfterSetResult
+</t>
+  </si>
+  <si>
+    <t>Срабатывает в конце OnSetResult, вне зависимости от занесения данных в целевой объект</t>
+  </si>
+  <si>
+    <t xml:space="preserve">После обработки выбранного объекта и занесения данных результата в целевой объект.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">То, куда будут занесены полученные значения - строка (DataRow) или объект с данными (напр. BindingSource) или контейнер (Panel) или словарь (string-object)
+При инициализации FormEdit этому свойству присваивается FormEdit.SourceObject
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Объект с параметрами для вызова формы - строка или словарь или произвольный объект
+При инициализации FormEdit этому свойству присваивается FormEdit.SourceRow
+</t>
+  </si>
+  <si>
+    <t>Пары "поле ключа для формы выбора = поле объекта-источника"</t>
+  </si>
+  <si>
+    <t>Пары "поле фильтра для формы выбора = поле объекта-источника"</t>
+  </si>
+  <si>
+    <t>ParamsCheckEventArgs</t>
+  </si>
+  <si>
+    <t>ProcessDataEventArgs</t>
+  </si>
+  <si>
+    <t>PrepareParams</t>
+  </si>
+  <si>
+    <t>GetParamsForMap</t>
+  </si>
+  <si>
+    <t>SetValues</t>
+  </si>
+  <si>
+    <t>GetControlValue</t>
+  </si>
+  <si>
+    <t>SetControlValue</t>
+  </si>
+  <si>
+    <t>Аргументы для события проверки-изменения параметров перед их передачей в sql</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Аргументы для события обработки данных (например выполнения sql)
+</t>
+  </si>
+  <si>
+    <t>Для событий DataList.GetData, FormEdit.GetData, FormEdit.SetData</t>
+  </si>
+  <si>
+    <t>public static</t>
+  </si>
+  <si>
+    <t>Формирование словаря параметров ключ-объект из переданного объекта</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Формирование словаря с указанными ключами
+</t>
+  </si>
+  <si>
+    <t>Установка значений словаря в поля объекта</t>
+  </si>
+  <si>
+    <t>Значение контрола для дальнейшего использования</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Установить строку в значение контрола в зависимости от его типа
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">По ключу словаря определяется объект для присвоения - в зависимости от того, что является целевым объектом - поле строки (по имени столбца), контрол (по имени), элемент словаря (по ключу), свойство объекта (по имени). 
+Значение элемента входящего словаря присваивается найденному объекту.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Полученная строка корректно преобразуется к нужному типу и присваивается нужному свойству контрола
+</t>
+  </si>
+  <si>
+    <t>LivingForms</t>
+  </si>
+  <si>
+    <t>Self</t>
+  </si>
+  <si>
+    <t>Формы запущенные в данный момент</t>
+  </si>
+  <si>
+    <t>Словарь имя-объект Form, где имя = [имя_родителя.]имя_формы</t>
+  </si>
+  <si>
+    <t>Conn</t>
+  </si>
+  <si>
+    <t>Объект подключения приложения (SqlConnection)</t>
+  </si>
+  <si>
+    <t>Последняя активная форма приложения</t>
+  </si>
+  <si>
+    <t>LastActiveForm</t>
+  </si>
+  <si>
+    <t>Главная форма приложения</t>
+  </si>
+  <si>
+    <t>MainForm</t>
+  </si>
+  <si>
+    <t>TransferObject</t>
+  </si>
+  <si>
+    <t>Объект для передачи данных</t>
+  </si>
+  <si>
+    <t>Заполняется например при возврате результата из формы редактора или из формы выбора</t>
+  </si>
+  <si>
+    <t>Сборка с картинками в ресурсах</t>
+  </si>
+  <si>
+    <t>ImgAsmName</t>
+  </si>
+  <si>
+    <t>Набор общих данных</t>
+  </si>
+  <si>
+    <t>CommonObjects</t>
+  </si>
+  <si>
+    <t>enum для режимов запуска/работы форм-наследников FormBase</t>
+  </si>
+  <si>
+    <t>Default = 0, GetResult = 1, NewRecEdit = 2, Modal = 4, Single = 8, ViewOnlyEdit = 16, GetMultiResult = 32</t>
+  </si>
+  <si>
+    <t>Объект контекста приложения (класса Context)</t>
+  </si>
+  <si>
+    <t>Run</t>
+  </si>
+  <si>
+    <t>public static get</t>
+  </si>
+  <si>
+    <t>Создать объект контекста и запустить приложение</t>
+  </si>
+  <si>
+    <t>FillMenu</t>
+  </si>
+  <si>
+    <t>Заполнить указанный ToolStrip по настройкам меню</t>
+  </si>
+  <si>
+    <t>Конструктор</t>
+  </si>
+  <si>
+    <t>private</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Запускается из Main, после создания главной формы
+Читает конфиг - AppConfig.Load()
+Создает Self через приватный конструктор Context
+Запускает Application.Run
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Создает и проверяет коннекцию
+Читает основные параметры конфига и содержимое таблиц ядра (меню, команды)
+</t>
+  </si>
+  <si>
+    <t>GetImage</t>
+  </si>
+  <si>
+    <t>Получить картинку из ресурсов</t>
+  </si>
+  <si>
+    <t>GetMethod</t>
+  </si>
+  <si>
+    <t>Получить метод из сборки</t>
+  </si>
+  <si>
+    <t>ExecMethod</t>
+  </si>
+  <si>
+    <t>Вызов метода по команде из настроек</t>
+  </si>
+  <si>
+    <t>Вернет MethodInfo по его имени, классу и сборке, для последующего запуска через Invoke</t>
+  </si>
+  <si>
+    <t>GetForm</t>
+  </si>
+  <si>
+    <t>Создать форму по коду из настроек</t>
+  </si>
+  <si>
+    <t>Создать форму из сборки</t>
+  </si>
+  <si>
+    <t>ExecForm</t>
+  </si>
+  <si>
+    <t>Вызов формы</t>
+  </si>
+  <si>
+    <t>Инициализация формы
+(интерфейс IDataForm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Подготовка значений полей параметров для сохранения
+(интерфейс IDataForm)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Установка загруженных значений полей параметров
+(интерфейс IDataForm)
+</t>
+  </si>
+  <si>
+    <t>LoadFormOptions</t>
+  </si>
+  <si>
+    <t>SaveFormOptions</t>
+  </si>
+  <si>
+    <t>Загрузить параметры отображения формы</t>
+  </si>
+  <si>
+    <t>Сохранить параметры отображения формы</t>
+  </si>
+  <si>
+    <t>ShowMain</t>
+  </si>
+  <si>
+    <t>Показать главную форму приложения</t>
+  </si>
+  <si>
+    <t>FormDefaultPos</t>
+  </si>
+  <si>
+    <t>Разместить форму с учетом главной формы приложения</t>
+  </si>
+  <si>
+    <t>SelectForm</t>
+  </si>
+  <si>
+    <t>Выбор из списка активных форм</t>
+  </si>
+  <si>
+    <t>Обработка событий по управлению формой</t>
+  </si>
+  <si>
+    <t>ManageForm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В зависимости от сочетания клавиш - вызов главной формы, выбор формы, позиционирование, возврат настроек
+Вызывается из обработчиков нажатий клавиш и кнопок
+</t>
+  </si>
+  <si>
+    <t>CheckConnection</t>
+  </si>
+  <si>
+    <t>Проверка подключения</t>
+  </si>
+  <si>
+    <t>GetTable</t>
+  </si>
+  <si>
+    <t>GetTableList</t>
+  </si>
+  <si>
+    <t>GetCommandText</t>
+  </si>
+  <si>
+    <t>Вернуть текст команды по коду из настроек</t>
+  </si>
+  <si>
+    <t>Trassa</t>
+  </si>
+  <si>
+    <t>Вывод трассировки выполняемого запроса</t>
+  </si>
+  <si>
+    <t>GcCollect</t>
+  </si>
+  <si>
+    <t>Принудительная сборка мусора</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Если явно не указан запрос, достает запрос по коду из настроек через GetCommandText()
+Использует метод расширения GetTable() для SqlConnection
+</t>
+  </si>
+  <si>
+    <t>Выполнить запрос, вернуть таблицу (DataTable)</t>
+  </si>
+  <si>
+    <t>Выполнить запрос, вернуть список строк (List&lt;DataRow&gt;)</t>
+  </si>
+  <si>
+    <t>Выполнить запрос, вернуть кол-во обработанных строк или -1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Метод для передачи в методы расширения SqlConnection 
+Вызывается в методе расширения ExecSql() для SqlConnection 
+Выводит окно трассировки (FTrassa) с текстом выполняемого запроса до его выполнения
+Окно обрабатывает Enter для сохранения текста в буфере 
+</t>
+  </si>
+  <si>
+    <t>ExecSqlType</t>
+  </si>
+  <si>
+    <t>Scalar, NonQuery, Table</t>
+  </si>
+  <si>
+    <t>SetNonPublicProperty</t>
+  </si>
+  <si>
+    <t>AddFromDictionary&lt;T,S&gt;</t>
+  </si>
+  <si>
+    <t>В зависимости от параметра - обновит или нет существующие элементы</t>
+  </si>
+  <si>
+    <t>SetNodeBackColor</t>
+  </si>
+  <si>
+    <t>CheckDates</t>
+  </si>
+  <si>
+    <t>Обертка над GetTable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Установка цветов узла у дерева
+Расширение для TreeView
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Установить-снять значение для закрытого свойства объекта
+Расширение для object
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добавить в словарь &lt;T,S&gt; из словаря &lt;T,S&gt;
+Расширение для целевого словаря
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enum для вариантов выполнения sql-команд
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Выполнить sql, вернуть список строк (List&lt;DataRow&gt;)
+Расширение для SqlConnection
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Выполнить sql, вернуть таблицу (DataTable)
+Расширение для SqlConnection
+</t>
+  </si>
+  <si>
+    <t>ExecSql</t>
+  </si>
+  <si>
+    <t>GetValue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Выполнить sql, вернуть скалярный результат (object)
+Расширение для SqlConnection
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Выполнить sql, вернуть кол-во обработанных строк
+Расширение для SqlConnection
+</t>
+  </si>
+  <si>
+    <t>Обертка над ExecSql для ExecSqlType = Scalar (выполнение SqlCommand.ExecuteScalar)
+Вернет результат ExecSql или null если ошибка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Выполнить sql
+Расширение для SqlConnection
+</t>
+  </si>
+  <si>
+    <t>GetSqlDeclare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вернуть sql-определение параметра
+Расширение для SqlParameter
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Для параметра вернет: [префикс]имя тип = значение
+где префикс например - declare @
+имя, тип и значение определяются по указанному SqlParameter
+</t>
+  </si>
+  <si>
+    <t>GetControl</t>
+  </si>
+  <si>
+    <t>ForControls</t>
+  </si>
+  <si>
+    <t>SetDoubleBuffered</t>
+  </si>
+  <si>
+    <t>DoubleClickCell</t>
+  </si>
+  <si>
+    <t>ToExcel</t>
+  </si>
+  <si>
+    <t>CollectionsToExcel</t>
+  </si>
+  <si>
+    <t>GetControls&lt;T&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Получить список контролов определенного типа
+Расширение для Control
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Найти контрол в контейнере
+Расширение для Control
+</t>
+  </si>
+  <si>
+    <t>Вызывается на контроле-контейнере, выдает с учетом вложенных контейнеров.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вызывается на контроле-контейнере, ищет с учетом вложенных контейнеров по имени контрола или по имени связанного поля (из указанного или любого связанного объекта), возможно с учетом определенного типа контрола
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Выполнение указанного метода для каждого контрола указаннго контрола-контейнера
+Расширение для Control
+</t>
+  </si>
+  <si>
+    <t>В качестве параметра указанного метода - контрол, для которого выполняется этот метод</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Установить/снять DoubleBuffered
+Расширение для DataGridView
+</t>
+  </si>
+  <si>
+    <t>Обертка для SetNonPublicProperty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Выполнить метод на ячейке грида (не обязательно при DoubleClick!)
+Расширение для DataGridView
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Например для использования в обработке DoubleClick, но не обязательно.
+Контролирует, что фокус (мышка нажата) именно в ячейке, а не где-то еще.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Выдать данные в эксель
+Расширение для DataGridView
+</t>
+  </si>
+  <si>
+    <t>Данные как есть, с минимальным оформлением и форматированием.
+Можно задать ограничение на кол-во строк (по умолчанию - 1 млн.)</t>
+  </si>
+  <si>
+    <t>Для изменения при раскрытии/сворачивании</t>
+  </si>
+  <si>
+    <t>Выгрузка коллекций объектов в Excel (по листам)
+Расширение для IEnumerable&lt;object&gt;[]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Выгружает данные каждой коллекции из массива на отдельный лист указанного файла-шаблона.
+В шаблоне предварительно должна быть подготовлена шапка, место для заголовка и формат столбцов.
+Данные помещаются начиная с первой строки под UsedRange.
+Можно передавать массив строк для заголовка и подвала.
+</t>
+  </si>
+  <si>
+    <t>GetKeyRow</t>
+  </si>
+  <si>
+    <t>Вернуть индекс строки по ключу</t>
+  </si>
+  <si>
+    <t>Вернет object = словарь строка-объект</t>
+  </si>
+  <si>
+    <t>Нужно передать object = словарь строка-объект</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Срабатывает при определенных событиях определенных контролов, подписка на которые происходит в SubscribeControlTrigger()  - это события изменения состояния (Checked, Selected, ...), входа (Enter), выхода (Leave)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Для получения снаружи контекста, режима, словаря параметров и ключа, и для инициализации свойств формы 
+Переопределяется в наследниках для инициализации других свойств.
+</t>
+  </si>
+  <si>
     <r>
-      <t>Вызывается из LoadData() -&gt; OnGetData() объекта DataList как обработчик события GetData списка. Подписка на событие списка происходит при инициализации формы.
+      <t>При инициализации формы устанавливается как обработчик события GetData списка. 
 Чистит грид, собрает мусор и получает данные в соответствии с запросом/командой, которые берет из свойств QuerySql/QueryCmdCode списка (QueryCmdCode используется, если QuerySql не указан)
 Запрос, его параметры и признак необходиости обработки - в параметре ProcessDataEventArgs</t>
     </r>
@@ -1111,823 +1733,113 @@
     </r>
   </si>
   <si>
-    <t>Срабатывает сразу после QueryParamsCheck и перед стандартным обработчиком
-Получает объект CtrlProc.ProcessDataEventArgs со свойствами Pars, Result и Handled
-В обработчике делаем запрос, которому передаем словарь из Pars. Результат запроса должен быть помещен в Result.
-Чтобы не вызывался обработчик по умолчанию, нужно установить признак завершения (Handled)
-Обработчик по умолчанию использует команду из свойств "Select..." в зависимости от режима - новая запись или нет. "...CmdCode" используется, если "...Sql" не указан.
-По завершении события объект из Result становится источником данных формы  - в Source.DataSource
-Если Result не задан или если запрос вернет DataTable не с одной записью - будет ошибка и форма не будет создана.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Срабатывает после стандартной установки привязок.
-Позволяет скорректировать существующие биндинги, добавить новые и т.п.
+    <t xml:space="preserve">Если появляются новые типы контролов, для которых возможна передача значения как параметра, надо их прописать в этом методе.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Для всех контролов - подписка на Enter и Leave (вход/выход)
+Для галок, радио, комбо и т.п. - на события изменения состояния
+Если появится новый тип контрола, для которого требуется обработка поведения, нужно оформить подписку на его события.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как обертка над ExecForm() контекста, с предустановкой, контролем возврата и получением результата.
+По окончании работы метода, если редактируемая запись была сохранена, будет заполнено свойство контекста TransferObject объектом с ключами сохраненной записи. Если вызов был из списка - список обновится.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как обертка над ExecForm() контекста, с предустановкой, контролем возврата и обработкой результата.
+Передается исходный объект и словарь доп.параметров, а также метод для обработки полученного результата, которым может быть как единичная запись, так и коллекция.
+Полученный результат также сохраняется в свойстве TransferObject контекста.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Для удобства запуска запроса с формы, из списка. С возможностью выдачи предварительного сообщения и обработки по нескольким записям. 
+Как обертка над GetTable() контекста. Возвращает полученный объект.
+Если был указан список - обновит его при завершении.
+</t>
+  </si>
+  <si>
+    <t>содержит объект списка (DataList), ключ текущей записи и признак завершения обработки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">признак необходимости перечитать данные на форме 
+</t>
+  </si>
+  <si>
+    <t>например - изменились параметры
+если необходимо обновить - меняет цвет кнопки обновления</t>
+  </si>
+  <si>
+    <t>protected
+get</t>
+  </si>
+  <si>
+    <t>Dictionary&lt;DataList, List&lt;Control&gt;&gt;
+может быть изменен в событиях CreateUiParamList, SetUiParamsDefaultValues, SetUiParamsValuesAfterLoad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Получить данные в процессе загрузки формы. 
+</t>
+  </si>
+  <si>
+    <t>Если false - после запуска формы ждем нажатия кнопки (F5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Срабатывает после выбора из списка, но до возвращения объекта из формы.
+Используется для коррекции выбранного объекта.
+Если установить признак завершения обработки, выбранный объект не попадет в Context.TransferObject и не будет установлен DialogResult.
+Выбранный объект - это объект "под строкой" списка (ActiveGrid.GetRowObject()) или список таких объектов при множественном выборе.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Подготавливает и возвращает список объектов для сохранения текущих значений контролов из uiParams в базу/XML при закрытии формы.
+Запускает событие PrepareUiParamsForSave для возможности коррекции подготовленного списка.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вызывается в LoadData -&gt; OnGetData, перед QueryParamsCheck и GetData
+В качестве параметра получает extParams - как начальный набор параметров.
+Возвращает набор параметров для дальнейшей передачи в обработчики событий QueryParamsCheck и GetData
+В FormList подписан метод GridQueryParamsSet, который дополняет параметры значениями контролов из панели, указанной в ParamsPanel
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQL-запрос для получения данных списка
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Код настройки sql-команды для получения данных списка
+</t>
+  </si>
+  <si>
+    <t>Настройки задаются в программе Master</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Устанавливает формировать ли автоматом столбцы списка для всех полей полученных данных
+</t>
+  </si>
+  <si>
+    <t>Выдача содержимого грида в Excel</t>
+  </si>
+  <si>
+    <t>Класс для описания соответствия поля данных и поля формы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Срабатывает при запуске формы, после того как выполнена стандартная инициализация формы в режиме новой записи - отключена видимость всех списков
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Срабатывает при запуске формы, после того как выполнена стандартная инициализация формы - отключена видимость кнопки сохранения и сделаны недоступными поля
 </t>
   </si>
   <si>
     <t xml:space="preserve">Получает объект CtrlProc.ParamsCheckEventArgs, у которого используется свойство Pars (словарь параметров), который предварительно заполняется внешними параметрами (см. FormBase.extParams) с учетом ExtParamsMap
-Используется для предварительной обработки (проверка, коррекция) полученного словаря параметров перед передачей их в запрос на получение данных (в событии GetData)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Срабатывает при запуске формы, после того как выполнены действия для новой формы - отключена видимость всех списков
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Срабатывает после GetData и заполнения DataMap, элементы которого формируются, если найдено соответствие имени поля источника данных и имени контрола формы.
-После события идет стандартная установка привязок к данным для контролов из DataMap (через Control.DataBindings.Add)
-</t>
-  </si>
-  <si>
-    <t>Подготовка данных перед привязкой к полям формы</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Событие для сохранения данных
-(параметр типа CtrlProc.ProcessDataEventArgs)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Проверка и уточнение параметров команды сохранения
-(параметр типа CtrlProc.ParamsCheckEventArgs)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Срабатывает перед событием SetData
-Получает объект CtrlProc.ParamsCheckEventArgs, у которого может быть скорректировано свойство Pars (словарь параметров), который предварительно заполняется данными из SourceObject.
-При выявлении ошибок может быть заполнен словарь CheckResult ("имя поля или контрола - сообщение") - для вывода предупреждений.
-После события вызывается команда, указанная в "Check…" (если она указана), которая таже может вернуть набор "имя - сообщение", который будет добавлен к CheckResult
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Запускается после нажатия кнопки сохранения на панели (Ctrl+Enter), или Ctrl+S 
-Последовательно запускает:
- - событие SaveParamsCheck
- - вызов команды, указанной в "Check…"
- - событие SetData
-Вернет true если не было ошибок проверки и событие сохранения вернуло результат
-В этом случае форма редактирования будет закрыта (если было сохранение с закрытием)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Запускается после инициализации формы, в конце OnLoad формы.
-Последовательно запускает:
- - событие QueryParamsCheck
- - событие GetData
- - подготовку данных для биндинга и событие DataMapCreate
- - стандартную процедуру биндинга
- - событие AfterBinding
- - если не режим новой записи - заполнение списков - через вызов метода LoadData для каждого списка, в который передаются данные из SourceObject
-</t>
-  </si>
-  <si>
-    <t>ExecSelectionFormEventArgs</t>
-  </si>
-  <si>
-    <t>SetResultEventArgs</t>
-  </si>
-  <si>
-    <t>Аргументы для события запуска формы для выбора</t>
-  </si>
-  <si>
-    <t>Аргументы для события обработки результата выбора</t>
-  </si>
-  <si>
-    <t>public get</t>
-  </si>
-  <si>
-    <t>SelectedObject</t>
-  </si>
-  <si>
-    <t>SelectedValues</t>
-  </si>
-  <si>
-    <t>Полученные значения</t>
-  </si>
-  <si>
-    <t>TargetObject</t>
-  </si>
-  <si>
-    <t>Целевой объект</t>
-  </si>
-  <si>
-    <t>Выбранный объект</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Объект-источник </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> = контексту приложения формы
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Могут быть указаны доп.параметры (+ к тому, что идет из SourceObject формы) и форма
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Возвращается из формы выбора - строка или словарь или произвольный объект
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Словарь строка-объект из выбранного объекта с учетом ResultMap
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KeyMap
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FilterMap
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ResultMap
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SelectionForm
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nullable
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Editable
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disabled
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-</t>
-  </si>
-  <si>
-    <t>Пары "поле целевого объекта = поле выбранного объекта"</t>
-  </si>
-  <si>
-    <t>Форма для выбора (код формы из настроек)</t>
-  </si>
-  <si>
-    <t>Признак - допустимо ли пустое значение</t>
-  </si>
-  <si>
-    <t>Признак - допустимо ли редактирование текста</t>
-  </si>
-  <si>
-    <t>Признак - элемент управления недоступен</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Если установлен и Editable = false, то при нажатии на Delete сбрасываются SelectedObject и SelectedValues и в TargetObject сбрасываются поля, указанные в ResultMap
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Должен быть установлен, если необходимо залочить контрол. Изменяет цвет и доступность выбора.
-</t>
-  </si>
-  <si>
-    <t>В этом случае не работает сброс в пустые значения - нужно дописывать обработчики событий</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ExecSelectionForm
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SetResult
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AfterSetResult
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protected override </t>
-  </si>
-  <si>
-    <t xml:space="preserve">OnDropDown
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OnSetResult
-</t>
-  </si>
-  <si>
-    <t>Переопределенный метод раскрытия списка</t>
-  </si>
-  <si>
-    <t>Вызов формы для выбора
-(параметр ExecSelectionFormEventArgs)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Обработка выбранного объекта
-(параметр SetResultEventArgs)
-</t>
-  </si>
-  <si>
-    <t>Обработчик результата</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Срабатывает в OnDropDown до вызова формы выбора. 
-Могут быть указаны доп.данные (+ к тому, что идет из SourceObject формы) и объект формы выбора (тогда будет проигнорировано свойство SelectionForm)
-Для отказа от последующего вызова формы выбора необходимо проставить признак обработки
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Запускает событие ExecSelectionForm
-Вызывает форму выбора через FormBase.ExecFormSelect(), передает ей обработчик OnSetResult
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Содержит словарь данных результата (из выбранного объекта, с учетом ResultMap)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Срабатывает до занесения данных результата в целевой объект.
-Служит для проверок, коррекций данных результата и занесения их еще куда-то…
-Для отказа от занесения данных результата в целевой объект необходимо проставить признак обработки
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Будет вызван в FormBase.ExecFormSelect(), если форма выбора вернула результат.
-Выбранный объект попадает в SelectedObject
-Запускает событие SetResult, передавая в параметре словарь данных результата (из выбранного объекта, с учетом ResultMap)
-Заносит данные результата в целевой объект.
-Запускает событие AfterSetResult
-</t>
-  </si>
-  <si>
-    <t>Срабатывает в конце OnSetResult, вне зависимости от занесения данных в целевой объект</t>
-  </si>
-  <si>
-    <t xml:space="preserve">После обработки выбранного объекта и занесения данных результата в целевой объект.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">То, куда будут занесены полученные значения - строка (DataRow) или объект с данными (напр. BindingSource) или контейнер (Panel) или словарь (string-object)
-При инициализации FormEdit этому свойству присваивается FormEdit.SourceObject
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Объект с параметрами для вызова формы - строка или словарь или произвольный объект
-При инициализации FormEdit этому свойству присваивается FormEdit.SourceRow
-</t>
-  </si>
-  <si>
-    <t>Пары "поле ключа для формы выбора = поле объекта-источника"</t>
-  </si>
-  <si>
-    <t>Пары "поле фильтра для формы выбора = поле объекта-источника"</t>
-  </si>
-  <si>
-    <t>ParamsCheckEventArgs</t>
-  </si>
-  <si>
-    <t>ProcessDataEventArgs</t>
-  </si>
-  <si>
-    <t>PrepareParams</t>
-  </si>
-  <si>
-    <t>GetParamsForMap</t>
-  </si>
-  <si>
-    <t>SetValues</t>
-  </si>
-  <si>
-    <t>GetControlValue</t>
-  </si>
-  <si>
-    <t>SetControlValue</t>
-  </si>
-  <si>
-    <t>Аргументы для события проверки-изменения параметров перед их передачей в sql</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Аргументы для события обработки данных (например выполнения sql)
-</t>
-  </si>
-  <si>
-    <t>Для событий DataList.QueryParamsCheck, FormEdit.QueryParamsCheck, FormEdit.SaveParamsCheck</t>
-  </si>
-  <si>
-    <t>Для событий DataList.GetData, FormEdit.GetData, FormEdit.SetData</t>
-  </si>
-  <si>
-    <t>public static</t>
-  </si>
-  <si>
-    <t>Формирование словаря параметров ключ-объект из переданного объекта</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Формирование словаря с указанными ключами
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Передается - словарь ключ-объект, или коллекция контролов, или строка таблицы, или произвольный объект
-Могут быть добавлены существующие параметры.
-Может быть передана строка соответствий ключей параметров (формируемый=полученный;...)
-</t>
-  </si>
-  <si>
-    <t>Из исходного словаря с учетом строки соответствий ключей параметров (формируемый=полученный;...)</t>
-  </si>
-  <si>
-    <t>Установка значений словаря в поля объекта</t>
-  </si>
-  <si>
-    <t>Значение контрола для дальнейшего использования</t>
-  </si>
-  <si>
-    <t xml:space="preserve">В зависимости от типа контрола возращается его значение (object) - например для передачи в параметры
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Установить строку в значение контрола в зависимости от его типа
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">По ключу словаря определяется объект для присвоения - в зависимости от того, что является целевым объектом - поле строки (по имени столбца), контрол (по имени), элемент словаря (по ключу), свойство объекта (по имени). 
-Значение элемента входящего словаря присваивается найденному объекту.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Полученная строка корректно преобразуется к нужному типу и присваивается нужному свойству контрола
-</t>
-  </si>
-  <si>
-    <t>LivingForms</t>
-  </si>
-  <si>
-    <t>Self</t>
-  </si>
-  <si>
-    <t>Формы запущенные в данный момент</t>
-  </si>
-  <si>
-    <t>Словарь имя-объект Form, где имя = [имя_родителя.]имя_формы</t>
-  </si>
-  <si>
-    <t>Conn</t>
-  </si>
-  <si>
-    <t>Объект подключения приложения (SqlConnection)</t>
-  </si>
-  <si>
-    <t>Последняя активная форма приложения</t>
-  </si>
-  <si>
-    <t>LastActiveForm</t>
-  </si>
-  <si>
-    <t>Главная форма приложения</t>
-  </si>
-  <si>
-    <t>MainForm</t>
-  </si>
-  <si>
-    <t>TransferObject</t>
-  </si>
-  <si>
-    <t>Объект для передачи данных</t>
-  </si>
-  <si>
-    <t>Заполняется например при возврате результата из формы редактора или из формы выбора</t>
-  </si>
-  <si>
-    <t>Сборка с картинками в ресурсах</t>
-  </si>
-  <si>
-    <t>ImgAsmName</t>
-  </si>
-  <si>
-    <t>Набор общих данных</t>
-  </si>
-  <si>
-    <t>CommonObjects</t>
-  </si>
-  <si>
-    <t>enum для режимов запуска/работы форм-наследников FormBase</t>
-  </si>
-  <si>
-    <t>Default = 0, GetResult = 1, NewRecEdit = 2, Modal = 4, Single = 8, ViewOnlyEdit = 16, GetMultiResult = 32</t>
-  </si>
-  <si>
-    <t>Объект контекста приложения (класса Context)</t>
-  </si>
-  <si>
-    <t>Словарь строка-объект. Для хранения каких-то общих данных, настроек и т.п.</t>
-  </si>
-  <si>
-    <t>Run</t>
-  </si>
-  <si>
-    <t>public static get</t>
-  </si>
-  <si>
-    <t>Создать объект контекста и запустить приложение</t>
-  </si>
-  <si>
-    <t>FillMenu</t>
-  </si>
-  <si>
-    <t>Заполнить указанный ToolStrip по настройкам меню</t>
-  </si>
-  <si>
-    <t>Конструктор</t>
-  </si>
-  <si>
-    <t>private</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Запускается из Main, после создания главной формы
-Читает конфиг - AppConfig.Load()
-Создает Self через приватный конструктор Context
-Запускает Application.Run
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Создает и проверяет коннекцию
-Читает основные параметры конфига и содержимое таблиц ядра (меню, команды)
-</t>
-  </si>
-  <si>
-    <t>GetImage</t>
-  </si>
-  <si>
-    <t>Получить картинку из ресурсов</t>
-  </si>
-  <si>
-    <t>GetMethod</t>
-  </si>
-  <si>
-    <t>Получить метод из сборки</t>
-  </si>
-  <si>
-    <t>ExecMethod</t>
-  </si>
-  <si>
-    <t>Вызов метода по команде из настроек</t>
-  </si>
-  <si>
-    <t>Вернет MethodInfo по его имени, классу и сборке, для последующего запуска через Invoke</t>
-  </si>
-  <si>
-    <t>GetForm</t>
-  </si>
-  <si>
-    <t>Создать форму по коду из настроек</t>
-  </si>
-  <si>
-    <t>Создать форму из сборки</t>
-  </si>
-  <si>
-    <t>ExecForm</t>
-  </si>
-  <si>
-    <t>Вызов формы</t>
-  </si>
-  <si>
-    <t>Инициализация формы
-(интерфейс IDataForm)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Подготовка значений полей параметров для сохранения
-(интерфейс IDataForm)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Установка загруженных значений полей параметров
-(интерфейс IDataForm)
-</t>
-  </si>
-  <si>
-    <t>LoadFormOptions</t>
-  </si>
-  <si>
-    <t>SaveFormOptions</t>
-  </si>
-  <si>
-    <t>Загрузить параметры отображения формы</t>
-  </si>
-  <si>
-    <t>Сохранить параметры отображения формы</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Для FormModes.Single - проверяет что запущена, заполняет LivingForms
-Подписывает события при закрытии/открытии - для сохранения/чтения параметров отображения формы
-Для форм, реализующих IDataForm (например потомков FormBase) - вызывает Init()
-Показывает форму (Show, ShowDialog)
-Возвращает результат для модальной
-</t>
-  </si>
-  <si>
-    <t>ShowMain</t>
-  </si>
-  <si>
-    <t>Показать главную форму приложения</t>
-  </si>
-  <si>
-    <t>FormDefaultPos</t>
-  </si>
-  <si>
-    <t>Разместить форму с учетом главной формы приложения</t>
-  </si>
-  <si>
-    <t>SelectForm</t>
-  </si>
-  <si>
-    <t>Выбор из списка активных форм</t>
-  </si>
-  <si>
-    <t>Запускает форму выбора из открытых форм (FOpenedForms)</t>
-  </si>
-  <si>
-    <t>Обработка событий по управлению формой</t>
-  </si>
-  <si>
-    <t>ManageForm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">В зависимости от сочетания клавиш - вызов главной формы, выбор формы, позиционирование, возврат настроек
-Вызывается из обработчиков нажатий клавиш и кнопок
-</t>
-  </si>
-  <si>
-    <t>CheckConnection</t>
-  </si>
-  <si>
-    <t>Проверка подключения</t>
-  </si>
-  <si>
-    <t>GetTable</t>
-  </si>
-  <si>
-    <t>GetTableList</t>
-  </si>
-  <si>
-    <t>GetCommandText</t>
-  </si>
-  <si>
-    <t>Вернуть текст команды по коду из настроек</t>
-  </si>
-  <si>
-    <t>Trassa</t>
-  </si>
-  <si>
-    <t>Вывод трассировки выполняемого запроса</t>
-  </si>
-  <si>
-    <t>GcCollect</t>
-  </si>
-  <si>
-    <t>Принудительная сборка мусора</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Если явно не указан запрос, достает запрос по коду из настроек через GetCommandText()
-Использует метод расширения GetTable() для SqlConnection
-</t>
-  </si>
-  <si>
-    <t>Выполнить запрос, вернуть таблицу (DataTable)</t>
-  </si>
-  <si>
-    <t>Выполнить запрос, вернуть список строк (List&lt;DataRow&gt;)</t>
-  </si>
-  <si>
-    <t>То же, что и GetTable, только использует метод расширения GetTableList() для SqlConnection</t>
-  </si>
-  <si>
-    <t>Выполнить запрос, вернуть кол-во обработанных строк или -1</t>
-  </si>
-  <si>
-    <t>То же, что и GetTable, только использует метод расширения ExecCommand() для SqlConnection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Метод для передачи в методы расширения SqlConnection 
-Вызывается в методе расширения ExecSql() для SqlConnection 
-Выводит окно трассировки (FTrassa) с текстом выполняемого запроса до его выполнения
-Окно обрабатывает Enter для сохранения текста в буфере 
-</t>
-  </si>
-  <si>
-    <t>ExecSqlType</t>
-  </si>
-  <si>
-    <t>Scalar, NonQuery, Table</t>
-  </si>
-  <si>
-    <t>SetNonPublicProperty</t>
-  </si>
-  <si>
-    <t>AddFromDictionary&lt;T,S&gt;</t>
-  </si>
-  <si>
-    <t>В зависимости от параметра - обновит или нет существующие элементы</t>
-  </si>
-  <si>
-    <t>SetNodeBackColor</t>
-  </si>
-  <si>
-    <t>Выравнивание дат для двух DateTimePicker - "с" и  "по"
-Расширение для текущего DateTimePicker</t>
-  </si>
-  <si>
-    <t>CheckDates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">С возможностью установить текущую дату, если дата не задана
-Обычно используется на формах в ContolTrigger и установке значений по умолчанию в параметрах
-</t>
-  </si>
-  <si>
-    <t>Обертка над GetTable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Установка цветов узла у дерева
-Расширение для TreeView
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Установить-снять значение для закрытого свойства объекта
-Расширение для object
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Добавить в словарь &lt;T,S&gt; из словаря &lt;T,S&gt;
-Расширение для целевого словаря
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enum для вариантов выполнения sql-команд
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Выполнить sql, вернуть список строк (List&lt;DataRow&gt;)
-Расширение для SqlConnection
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Выполнить sql, вернуть таблицу (DataTable)
-Расширение для SqlConnection
-</t>
-  </si>
-  <si>
-    <t>ExecSql</t>
-  </si>
-  <si>
-    <t>GetValue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Выполнить sql, вернуть скалярный результат (object)
-Расширение для SqlConnection
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Выполнить sql, вернуть кол-во обработанных строк
-Расширение для SqlConnection
-</t>
-  </si>
-  <si>
-    <t>Обертка над ExecSql для ExecSqlType = NonQuery (выполнение SqlCommand.ExecuteNonQuery)
-Вернет количество обработанных строк, -1 если ошибка</t>
-  </si>
-  <si>
-    <t>Обертка над ExecSql для ExecSqlType = Scalar (выполнение SqlCommand.ExecuteScalar)
-Вернет результат ExecSql или null если ошибка</t>
-  </si>
-  <si>
-    <t>Обертка над ExecSql для ExecSqlType = Table (заполнение DataTable через SqlDataAdapter)
-Вернет результат, преобразованный к DataTable или null если ошибка</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Выполнить sql
-Расширение для SqlConnection
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Выполнить переданный sql в зависимости от варианта - через SqlDataAdapter или SqlCommand, с учетом переданных параметров (словарь имя-объект), в указанной коннекции, с учетом переданного таймаута (или таймаут возьмет из AppConfig)
-Перед запуском вызовет переданную функцию трассировки (стандартно - Context.Trassa)
-Возможно указать обработчик для DataTable.RowChanged.
-Возможно передать функцию финиша, которая будет вызвана после выполнения команды.
-Возможно запускать в отдельном потоке и передавать контекст UI в качестве параметра для выдачи сообщений и выполнения переданных функций (трасса, финиш)
-</t>
-  </si>
-  <si>
-    <t>GetSqlDeclare</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Вернуть sql-определение параметра
-Расширение для SqlParameter
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Для параметра вернет: [префикс]имя тип = значение
-где префикс например - declare @
-имя, тип и значение определяются по указанному SqlParameter
-</t>
-  </si>
-  <si>
-    <t>GetControl</t>
-  </si>
-  <si>
-    <t>ForControls</t>
-  </si>
-  <si>
-    <t>SetDoubleBuffered</t>
-  </si>
-  <si>
-    <t>DoubleClickCell</t>
-  </si>
-  <si>
-    <t>ToExcel</t>
-  </si>
-  <si>
-    <t>CollectionsToExcel</t>
-  </si>
-  <si>
-    <t>GetControls&lt;T&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Получить список контролов определенного типа
-Расширение для Control
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Найти контрол в контейнере
-Расширение для Control
-</t>
-  </si>
-  <si>
-    <t>Вызывается на контроле-контейнере, выдает с учетом вложенных контейнеров.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Вызывается на контроле-контейнере, ищет с учетом вложенных контейнеров по имени контрола или по имени связанного поля (из указанного или любого связанного объекта), возможно с учетом определенного типа контрола
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Выполнение указанного метода для каждого контрола указаннго контрола-контейнера
-Расширение для Control
-</t>
-  </si>
-  <si>
-    <t>В качестве параметра указанного метода - контрол, для которого выполняется этот метод</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Установить/снять DoubleBuffered
-Расширение для DataGridView
-</t>
-  </si>
-  <si>
-    <t>Обертка для SetNonPublicProperty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Выполнить метод на ячейке грида (не обязательно при DoubleClick!)
-Расширение для DataGridView
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Например для использования в обработке DoubleClick, но не обязательно.
-Контролирует, что фокус (мышка нажата) именно в ячейке, а не где-то еще.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Выдать данные в эксель
-Расширение для DataGridView
-</t>
-  </si>
-  <si>
-    <t>Данные как есть, с минимальным оформлением и форматированием.
-Можно задать ограничение на кол-во строк (по умолчанию - 1 млн.)</t>
-  </si>
-  <si>
-    <t>Для изменения при раскрытии/сворачивании</t>
-  </si>
-  <si>
-    <t>Выгрузка коллекций объектов в Excel (по листам)
-Расширение для IEnumerable&lt;object&gt;[]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Выгружает данные каждой коллекции из массива на отдельный лист указанного файла-шаблона.
-В шаблоне предварительно должна быть подготовлена шапка, место для заголовка и формат столбцов.
-Данные помещаются начиная с первой строки под UsedRange.
-Можно передавать массив строк для заголовка и подвала.
-</t>
-  </si>
-  <si>
-    <t>GetKeyRow</t>
-  </si>
-  <si>
-    <t>Вернуть индекс строки по ключу</t>
-  </si>
-  <si>
-    <t>Вернет object = словарь строка-объект</t>
-  </si>
-  <si>
-    <t>Нужно передать object = словарь строка-объект</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Срабатывает  после SaveParamsCheck и вызовом команды, указанной в "Check…",  перед стандартным обработчиком (он не определен в режиме просмотра)
+Используется для предварительной обработки (проверка, коррекция) полученного словаря параметров перед передачей их в запрос на получение данных в событии GetData
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Срабатывает  после проверки параметров и перед стандартным обработчиком (он не определен в режиме просмотра)
 Получает объект CtrlProc.ProcessDataEventArgs со свойствами Pars, Result и Handled
 В обработчике выполняем команду, которой передаем словарь из Pars. Результат выполнения должен быть помещен в Result.
 Чтобы не вызывался обработчик по умолчанию, нужно установить признак завершения (Handled)
@@ -1935,6 +1847,119 @@
 По завершении события объект из Result становится результатом, который вернула форма - он помещается в Ctx.TransferObject и представляет из себя словарь "строка-объект". Как правило это словарь с ключевыми полями обработанной записи, которые используются для позиционирования в списке, из которого была вызвана форма. Метод FormBase.ExecFormEdit автоматически поддерживает такое позиционирование.
 Из результата sql-команды используется 1-я строка.
 Если Result не задан - будет ошибка и форма не будет закрыта.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Запускается после нажатия кнопки сохранения на панели (Ctrl+Enter), или Ctrl+S 
+Последовательно запускает:
+ - событие SaveParamsCheck
+ - вызов команды, указанной в "Check…"
+ - событие SetData
+Вернет true если не было ошибок проверки и событие сохранения вернуло результат
+В этом случае, если выполнялось сохранение с закрытием, форма будет закрыта
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Могут быть указаны доп.параметры (+ к тому, что идет из SourceObject формы) и объект формы
+</t>
+  </si>
+  <si>
+    <t>Передается - словарь ключ-объект, или коллекция контролов, или строка таблицы, или произвольный объект
+Могут быть добавлены существующие параметры.
+Может быть указана строка соответствий имен параметров и имен полей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Из исходного словаря, с учетом строки соответствий формируемого и исходного ключей параметров
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Для событий DataList.QueryParamsCheck, FormEdit.QueryParamsCheck, FormEdit.SaveParamsCheck
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В этом случае не работает сброс в пустые значения - нужно дописывать обработчики событий клавиатуры
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Срабатывает сразу после QueryParamsCheck и перед стандартным обработчиком
+Получает объект CtrlProc.ProcessDataEventArgs со свойствами Pars, Result и Handled
+В обработчике делаем запрос, которому передаем словарь из Pars. Результат запроса должен быть помещен в Result.
+Чтобы не вызывался обработчик по умолчанию, нужно установить признак завершения (Handled)
+Обработчик по умолчанию использует команду из свойств "Select..." в зависимости от режима - новая запись или нет. "...CmdCode" используется, если "...Sql" не указан.
+По завершении события объект из Result становится источником данных формы  - в Source.DataSource
+Если Result не задан или если запрос вернет DataTable не с одной записью - будет ошибка и форма не будет создана.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">устанавливается в false после сохранения 
+может быть установлен в true при необходимости - см.пример формы редактированя sql-команды в проекте Master
+перед закрытием формы проверяется и, если true - предупреждает
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">устанвливается в true после сохранения
+используется для обновления списков при выходе
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Срабатывает по завершении OnMouseUp, OnKeyUp, LoadData, SetFilter
+Используется например для установки доступности кнопок в зависимости данных от текущей строки
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В зависимости от типа контрола возращается object - значение одного из свойств контрола, например для передачи в параметры.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Для FormModes.Single - проверяет что запущена, заполняет LivingForms
+Подписывает события при закрытии/открытии - для сохранения/чтения параметров отображения формы
+Для форм, реализующих IDataForm (например потомков FormBase) - вызывает Init()
+Показывает форму (Show, ShowDialog)
+Возвращает результат после закрытия модальной формы
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">То же, что и GetTable, только использует метод расширения GetTableList() для SqlConnection
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">То же, что и GetTable, только использует метод расширения ExecCommand() для SqlConnection
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Запускает форму выбора из открытых форм (FOpenedForms)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Словарь строка-объект. Для хранения каких-то общих данных, настроек и т.п.
+</t>
+  </si>
+  <si>
+    <t>Выравнивание дат для двух DateTimePicker - "с" и  "по"
+Расширение для DateTimePicker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В качестве объекта расширения указывается текущий DateTimePicker.
+Есть возможность установить текущую дату, если дата не задана.
+Обычно используется на формах в ContolTrigger и установке значений по умолчанию в параметрах.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Выполнить переданный sql в зависимости от варианта - через SqlDataAdapter или SqlCommand, с учетом переданных параметров (словарь имя-объект), в указанной коннекции, с учетом переданного таймаута (если не передан, используется указанный в AppConfig)
+Перед запуском вызовет переданную функцию трассировки (стандартно - Context.Trassa)
+Возможно указать обработчик для DataTable.RowChanged.
+Возможно передать функцию финиша, которая будет вызвана после выполнения команды.
+Возможно запускать в отдельном потоке и передавать контекст UI в качестве параметра для выдачи сообщений и выполнения переданных функций (трасса, финиш)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Обертка над ExecSql для ExecSqlType = NonQuery (выполнение SqlCommand.ExecuteNonQuery)
+Вернет количество обработанных строк, -1 если ошибка
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Обертка над ExecSql для ExecSqlType = Table (заполнение DataTable через SqlDataAdapter)
+Вернет результат, преобразованный к DataTable или null если ошибка
 </t>
   </si>
 </sst>
@@ -2429,8 +2454,8 @@
   <dimension ref="A1:E198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D101" sqref="D101"/>
+      <pane ySplit="1" topLeftCell="A190" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D199" sqref="D199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1"/>
@@ -2445,7 +2470,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="60.75" thickBot="1">
       <c r="B1" s="1" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -2459,7 +2484,7 @@
     </row>
     <row r="2" spans="1:5" s="7" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
       <c r="A2" s="9" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B2" s="8"/>
     </row>
@@ -2468,10 +2493,10 @@
         <v>16</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="60" outlineLevel="1">
@@ -2479,10 +2504,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>2</v>
@@ -2496,7 +2521,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>2</v>
@@ -2510,7 +2535,7 @@
         <v>8</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>2</v>
@@ -2524,7 +2549,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>14</v>
@@ -2535,7 +2560,7 @@
         <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>14</v>
@@ -2546,24 +2571,24 @@
         <v>15</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>86</v>
+        <v>453</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="75" outlineLevel="1">
+    <row r="10" spans="1:5" ht="60" outlineLevel="1">
       <c r="B10" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>409</v>
+        <v>373</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>211</v>
+        <v>454</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>18</v>
@@ -2574,10 +2599,10 @@
         <v>19</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>410</v>
+        <v>374</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>18</v>
@@ -2588,27 +2613,27 @@
         <v>20</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>411</v>
+        <v>375</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="150" outlineLevel="1">
+    <row r="13" spans="1:5" ht="135" outlineLevel="1">
       <c r="B13" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>280</v>
+        <v>455</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="45" outlineLevel="1">
@@ -2619,49 +2644,49 @@
         <v>24</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>25</v>
+        <v>456</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="60" outlineLevel="1">
+    <row r="15" spans="1:5" ht="75" outlineLevel="1">
       <c r="B15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="105" outlineLevel="1">
+      <c r="B16" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="60" outlineLevel="1">
-      <c r="B16" s="5" t="s">
+      <c r="C16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="120" outlineLevel="1">
+      <c r="B17" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="60" outlineLevel="1">
-      <c r="B17" s="5" t="s">
+      <c r="C17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="D17" s="2" t="s">
-        <v>37</v>
+        <v>459</v>
       </c>
       <c r="E17" s="10" t="s">
         <v>14</v>
@@ -2669,13 +2694,13 @@
     </row>
     <row r="18" spans="1:5" ht="90" outlineLevel="1">
       <c r="B18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="D18" s="2" t="s">
-        <v>50</v>
+        <v>460</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>14</v>
@@ -2683,10 +2708,10 @@
     </row>
     <row r="19" spans="1:5" ht="30" outlineLevel="1">
       <c r="B19" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="E19" s="10" t="s">
         <v>14</v>
@@ -2695,60 +2720,63 @@
     <row r="20" spans="1:5" ht="15.75" outlineLevel="1" thickBot="1"/>
     <row r="21" spans="1:5" s="7" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
       <c r="A21" s="9" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B21" s="8"/>
     </row>
     <row r="22" spans="1:5" ht="60" outlineLevel="1">
       <c r="B22" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="60" outlineLevel="1">
       <c r="B23" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="45" outlineLevel="1">
       <c r="B24" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="30" outlineLevel="1">
       <c r="B25" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="60" outlineLevel="1">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="45" outlineLevel="1">
       <c r="B26" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>77</v>
+        <v>462</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>463</v>
       </c>
       <c r="E26" s="10" t="s">
         <v>14</v>
@@ -2756,10 +2784,10 @@
     </row>
     <row r="27" spans="1:5" ht="30" outlineLevel="1">
       <c r="B27" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>2</v>
@@ -2767,13 +2795,13 @@
     </row>
     <row r="28" spans="1:5" ht="30" outlineLevel="1">
       <c r="B28" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="E28" s="10" t="s">
         <v>14</v>
@@ -2781,24 +2809,24 @@
     </row>
     <row r="29" spans="1:5" ht="30" outlineLevel="1">
       <c r="B29" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="30" outlineLevel="1">
+    <row r="30" spans="1:5" ht="45" outlineLevel="1">
       <c r="B30" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>55</v>
+        <v>465</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>2</v>
@@ -2806,38 +2834,35 @@
     </row>
     <row r="31" spans="1:5" ht="30" outlineLevel="1">
       <c r="B31" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>2</v>
+        <v>464</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="30" outlineLevel="1">
       <c r="B32" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" ht="60" outlineLevel="1">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" ht="30" outlineLevel="1">
       <c r="B33" s="3" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>72</v>
+        <v>466</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>467</v>
       </c>
       <c r="E33" s="10" t="s">
         <v>14</v>
@@ -2845,13 +2870,13 @@
     </row>
     <row r="34" spans="2:5" ht="30" outlineLevel="1">
       <c r="B34" s="3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E34" s="10" t="s">
         <v>14</v>
@@ -2859,13 +2884,13 @@
     </row>
     <row r="35" spans="2:5" ht="90" outlineLevel="1">
       <c r="B35" s="4" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E35" s="10" t="s">
         <v>14</v>
@@ -2873,13 +2898,13 @@
     </row>
     <row r="36" spans="2:5" ht="105" outlineLevel="1">
       <c r="B36" s="4" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="E36" s="10" t="s">
         <v>14</v>
@@ -2887,13 +2912,13 @@
     </row>
     <row r="37" spans="2:5" ht="90" outlineLevel="1">
       <c r="B37" s="4" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="E37" s="10" t="s">
         <v>14</v>
@@ -2901,13 +2926,13 @@
     </row>
     <row r="38" spans="2:5" ht="45" outlineLevel="1">
       <c r="B38" s="4" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="E38" s="10" t="s">
         <v>14</v>
@@ -2915,13 +2940,13 @@
     </row>
     <row r="39" spans="2:5" ht="60" outlineLevel="1">
       <c r="B39" s="4" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="E39" s="10" t="s">
         <v>14</v>
@@ -2929,13 +2954,13 @@
     </row>
     <row r="40" spans="2:5" ht="135" outlineLevel="1">
       <c r="B40" s="4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>106</v>
+        <v>468</v>
       </c>
       <c r="E40" s="10" t="s">
         <v>14</v>
@@ -2943,13 +2968,13 @@
     </row>
     <row r="41" spans="2:5" ht="45" outlineLevel="1">
       <c r="B41" s="4" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="E41" s="10" t="s">
         <v>14</v>
@@ -2957,13 +2982,13 @@
     </row>
     <row r="42" spans="2:5" ht="45" outlineLevel="1">
       <c r="B42" s="5" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="E42" s="10" t="s">
         <v>14</v>
@@ -2971,13 +2996,13 @@
     </row>
     <row r="43" spans="2:5" ht="75" outlineLevel="1">
       <c r="B43" s="5" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="E43" s="10" t="s">
         <v>14</v>
@@ -2985,13 +3010,13 @@
     </row>
     <row r="44" spans="2:5" ht="105" outlineLevel="1">
       <c r="B44" s="5" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>2</v>
@@ -2999,13 +3024,13 @@
     </row>
     <row r="45" spans="2:5" ht="90" outlineLevel="1">
       <c r="B45" s="5" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>2</v>
@@ -3016,10 +3041,10 @@
         <v>19</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>122</v>
+        <v>469</v>
       </c>
       <c r="E46" s="10" t="s">
         <v>14</v>
@@ -3030,10 +3055,10 @@
         <v>20</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="E47" s="10" t="s">
         <v>14</v>
@@ -3041,13 +3066,13 @@
     </row>
     <row r="48" spans="2:5" ht="60" outlineLevel="1">
       <c r="B48" s="5" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="E48" s="10" t="s">
         <v>14</v>
@@ -3056,30 +3081,30 @@
     <row r="49" spans="1:5" ht="15.75" outlineLevel="1" thickBot="1"/>
     <row r="50" spans="1:5" s="7" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
       <c r="A50" s="9" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B50" s="8"/>
     </row>
     <row r="51" spans="1:5" ht="45" outlineLevel="1">
       <c r="B51" s="6" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="45" outlineLevel="1">
       <c r="B52" s="6" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="75" outlineLevel="1">
@@ -3087,24 +3112,24 @@
         <v>3</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="120" outlineLevel="1">
+    <row r="54" spans="1:5" ht="135" outlineLevel="1">
       <c r="B54" s="2" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>202</v>
+        <v>470</v>
       </c>
       <c r="E54" s="10" t="s">
         <v>14</v>
@@ -3112,10 +3137,10 @@
     </row>
     <row r="55" spans="1:5" ht="45" outlineLevel="1">
       <c r="B55" s="3" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="E55" s="10" t="s">
         <v>14</v>
@@ -3123,35 +3148,38 @@
     </row>
     <row r="56" spans="1:5" ht="60" outlineLevel="1">
       <c r="B56" s="3" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="E56" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="45" outlineLevel="1">
+    <row r="57" spans="1:5" ht="30" outlineLevel="1">
       <c r="B57" s="3" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>165</v>
+        <v>471</v>
       </c>
       <c r="E57" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="60" outlineLevel="1">
+    <row r="58" spans="1:5" ht="45" outlineLevel="1">
       <c r="B58" s="3" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>166</v>
+        <v>472</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>473</v>
       </c>
       <c r="E58" s="10" t="s">
         <v>14</v>
@@ -3159,10 +3187,10 @@
     </row>
     <row r="59" spans="1:5" outlineLevel="1">
       <c r="B59" s="3" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="E59" s="10" t="s">
         <v>14</v>
@@ -3170,10 +3198,10 @@
     </row>
     <row r="60" spans="1:5" ht="30" outlineLevel="1">
       <c r="B60" s="3" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="E60" s="10" t="s">
         <v>14</v>
@@ -3181,10 +3209,10 @@
     </row>
     <row r="61" spans="1:5" ht="30" outlineLevel="1">
       <c r="B61" s="3" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="E61" s="10" t="s">
         <v>14</v>
@@ -3192,10 +3220,10 @@
     </row>
     <row r="62" spans="1:5" outlineLevel="1">
       <c r="B62" s="3" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="E62" s="10" t="s">
         <v>14</v>
@@ -3203,13 +3231,13 @@
     </row>
     <row r="63" spans="1:5" ht="45" outlineLevel="1">
       <c r="B63" s="3" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="E63" s="10" t="s">
         <v>14</v>
@@ -3217,13 +3245,13 @@
     </row>
     <row r="64" spans="1:5" ht="45" outlineLevel="1">
       <c r="B64" s="3" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="E64" s="10" t="s">
         <v>14</v>
@@ -3231,13 +3259,13 @@
     </row>
     <row r="65" spans="2:5" ht="45" outlineLevel="1">
       <c r="B65" s="3" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>177</v>
+        <v>474</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="E65" s="10" t="s">
         <v>14</v>
@@ -3245,13 +3273,13 @@
     </row>
     <row r="66" spans="2:5" ht="120" outlineLevel="1">
       <c r="B66" s="4" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="E66" s="10" t="s">
         <v>14</v>
@@ -3259,27 +3287,27 @@
     </row>
     <row r="67" spans="2:5" ht="150" outlineLevel="1">
       <c r="B67" s="4" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="E67" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="2:5" ht="45" outlineLevel="1">
+    <row r="68" spans="2:5" ht="60" outlineLevel="1">
       <c r="B68" s="4" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>154</v>
+        <v>490</v>
       </c>
       <c r="E68" s="10" t="s">
         <v>14</v>
@@ -3287,13 +3315,13 @@
     </row>
     <row r="69" spans="2:5" ht="75" outlineLevel="1">
       <c r="B69" s="4" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="E69" s="10" t="s">
         <v>14</v>
@@ -3301,13 +3329,13 @@
     </row>
     <row r="70" spans="2:5" ht="120" outlineLevel="1">
       <c r="B70" s="5" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="E70" s="10" t="s">
         <v>14</v>
@@ -3315,13 +3343,13 @@
     </row>
     <row r="71" spans="2:5" outlineLevel="1">
       <c r="B71" s="5" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="E71" s="10" t="s">
         <v>14</v>
@@ -3329,13 +3357,13 @@
     </row>
     <row r="72" spans="2:5" ht="30" outlineLevel="1">
       <c r="B72" s="5" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>2</v>
@@ -3343,10 +3371,10 @@
     </row>
     <row r="73" spans="2:5" ht="30" outlineLevel="1">
       <c r="B73" s="5" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>2</v>
@@ -3354,13 +3382,13 @@
     </row>
     <row r="74" spans="2:5" outlineLevel="1">
       <c r="B74" s="5" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>496</v>
+        <v>451</v>
       </c>
       <c r="E74" s="10" t="s">
         <v>14</v>
@@ -3368,13 +3396,13 @@
     </row>
     <row r="75" spans="2:5" outlineLevel="1">
       <c r="B75" s="5" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="E75" s="10" t="s">
         <v>14</v>
@@ -3382,22 +3410,22 @@
     </row>
     <row r="76" spans="2:5" outlineLevel="1">
       <c r="B76" s="5" t="s">
-        <v>494</v>
+        <v>449</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>495</v>
+        <v>450</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>497</v>
+        <v>452</v>
       </c>
       <c r="E76" s="10"/>
     </row>
     <row r="77" spans="2:5" outlineLevel="1">
       <c r="B77" s="5" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="E77" s="10" t="s">
         <v>14</v>
@@ -3405,10 +3433,10 @@
     </row>
     <row r="78" spans="2:5" outlineLevel="1">
       <c r="B78" s="5" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="E78" s="10" t="s">
         <v>14</v>
@@ -3416,10 +3444,10 @@
     </row>
     <row r="79" spans="2:5" ht="30" outlineLevel="1">
       <c r="B79" s="5" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="E79" s="10" t="s">
         <v>14</v>
@@ -3427,10 +3455,10 @@
     </row>
     <row r="80" spans="2:5" outlineLevel="1">
       <c r="B80" s="5" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="E80" s="10" t="s">
         <v>14</v>
@@ -3438,13 +3466,13 @@
     </row>
     <row r="81" spans="1:5" outlineLevel="1">
       <c r="B81" s="5" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>209</v>
+        <v>475</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="E81" s="10" t="s">
         <v>14</v>
@@ -3452,10 +3480,10 @@
     </row>
     <row r="82" spans="1:5" outlineLevel="1">
       <c r="B82" s="5" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="E82" s="10" t="s">
         <v>14</v>
@@ -3463,10 +3491,10 @@
     </row>
     <row r="83" spans="1:5" outlineLevel="1">
       <c r="B83" s="5" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="E83" s="10" t="s">
         <v>14</v>
@@ -3474,10 +3502,10 @@
     </row>
     <row r="84" spans="1:5" ht="30" outlineLevel="1">
       <c r="B84" s="5" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="E84" s="10" t="s">
         <v>14</v>
@@ -3485,10 +3513,10 @@
     </row>
     <row r="85" spans="1:5" outlineLevel="1">
       <c r="B85" s="5" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="E85" s="10" t="s">
         <v>14</v>
@@ -3496,13 +3524,13 @@
     </row>
     <row r="86" spans="1:5" ht="45" outlineLevel="1">
       <c r="B86" s="5" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="E86" s="10" t="s">
         <v>18</v>
@@ -3511,44 +3539,44 @@
     <row r="87" spans="1:5" ht="15.75" outlineLevel="1" thickBot="1"/>
     <row r="88" spans="1:5" s="7" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
       <c r="A88" s="9" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B88" s="8"/>
     </row>
-    <row r="89" spans="1:5" outlineLevel="1">
+    <row r="89" spans="1:5" ht="30" outlineLevel="1">
       <c r="B89" s="6" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>273</v>
+        <v>476</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="30" outlineLevel="1">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="45" outlineLevel="1">
       <c r="B90" s="2" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>225</v>
+        <v>489</v>
       </c>
       <c r="E90" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="60" outlineLevel="1">
+    <row r="91" spans="1:5" ht="75" outlineLevel="1">
       <c r="B91" s="2" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>228</v>
+        <v>488</v>
       </c>
       <c r="E91" s="10" t="s">
         <v>14</v>
@@ -3556,111 +3584,111 @@
     </row>
     <row r="92" spans="1:5" ht="105" outlineLevel="1">
       <c r="B92" s="2" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="30" outlineLevel="1">
       <c r="B93" s="2" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="30" outlineLevel="1">
       <c r="B94" s="2" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="30" outlineLevel="1">
       <c r="B95" s="2" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="30" outlineLevel="1">
       <c r="B96" s="2" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
     </row>
     <row r="97" spans="2:5" ht="30" outlineLevel="1">
       <c r="B97" s="2" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
     </row>
     <row r="98" spans="2:5" ht="45" outlineLevel="1">
       <c r="B98" s="2" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>271</v>
+        <v>249</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
     </row>
     <row r="99" spans="2:5" ht="30" outlineLevel="1">
       <c r="B99" s="3" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="E99" s="10" t="s">
         <v>14</v>
@@ -3668,10 +3696,10 @@
     </row>
     <row r="100" spans="2:5" outlineLevel="1">
       <c r="B100" s="3" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="E100" s="10" t="s">
         <v>14</v>
@@ -3679,10 +3707,10 @@
     </row>
     <row r="101" spans="2:5" ht="30" outlineLevel="1">
       <c r="B101" s="3" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="E101" s="10" t="s">
         <v>14</v>
@@ -3690,10 +3718,10 @@
     </row>
     <row r="102" spans="2:5" outlineLevel="1">
       <c r="B102" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C102" s="2" t="s">
         <v>244</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>266</v>
       </c>
       <c r="E102" s="10" t="s">
         <v>14</v>
@@ -3701,10 +3729,10 @@
     </row>
     <row r="103" spans="2:5" outlineLevel="1">
       <c r="B103" s="3" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
       <c r="E103" s="10" t="s">
         <v>14</v>
@@ -3712,24 +3740,24 @@
     </row>
     <row r="104" spans="2:5" ht="45" outlineLevel="1">
       <c r="B104" s="3" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="E104" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="105" spans="2:5" ht="45" outlineLevel="1">
+    <row r="105" spans="2:5" ht="60" outlineLevel="1">
       <c r="B105" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C105" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="C105" s="2" t="s">
-        <v>269</v>
-      </c>
       <c r="D105" s="2" t="s">
-        <v>284</v>
+        <v>477</v>
       </c>
       <c r="E105" s="10" t="s">
         <v>14</v>
@@ -3737,13 +3765,13 @@
     </row>
     <row r="106" spans="2:5" ht="60" outlineLevel="1">
       <c r="B106" s="4" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>272</v>
+        <v>250</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>277</v>
+        <v>478</v>
       </c>
       <c r="E106" s="10" t="s">
         <v>14</v>
@@ -3751,27 +3779,27 @@
     </row>
     <row r="107" spans="2:5" ht="120" outlineLevel="1">
       <c r="B107" s="4" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>276</v>
+        <v>253</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>283</v>
+        <v>479</v>
       </c>
       <c r="E107" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="108" spans="2:5" ht="225" outlineLevel="1">
+    <row r="108" spans="2:5" ht="240" outlineLevel="1">
       <c r="B108" s="4" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>281</v>
+        <v>487</v>
       </c>
       <c r="E108" s="10" t="s">
         <v>14</v>
@@ -3779,13 +3807,13 @@
     </row>
     <row r="109" spans="2:5" ht="90" outlineLevel="1">
       <c r="B109" s="4" t="s">
-        <v>245</v>
+        <v>223</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>286</v>
+        <v>258</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>285</v>
+        <v>257</v>
       </c>
       <c r="E109" s="10" t="s">
         <v>14</v>
@@ -3793,13 +3821,13 @@
     </row>
     <row r="110" spans="2:5" ht="60" outlineLevel="1">
       <c r="B110" s="4" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>275</v>
+        <v>252</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>282</v>
+        <v>256</v>
       </c>
       <c r="E110" s="10" t="s">
         <v>14</v>
@@ -3807,27 +3835,27 @@
     </row>
     <row r="111" spans="2:5" ht="150" outlineLevel="1">
       <c r="B111" s="4" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>288</v>
+        <v>260</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>289</v>
+        <v>261</v>
       </c>
       <c r="E111" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="112" spans="2:5" ht="330" outlineLevel="1">
+    <row r="112" spans="2:5" ht="315" outlineLevel="1">
       <c r="B112" s="4" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>287</v>
+        <v>259</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>498</v>
+        <v>480</v>
       </c>
       <c r="E112" s="10" t="s">
         <v>14</v>
@@ -3835,13 +3863,13 @@
     </row>
     <row r="113" spans="1:5" ht="165" outlineLevel="1">
       <c r="B113" s="5" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>291</v>
+        <v>262</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>2</v>
@@ -3849,13 +3877,13 @@
     </row>
     <row r="114" spans="1:5" ht="165" outlineLevel="1">
       <c r="B114" s="5" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>290</v>
+        <v>481</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>2</v>
@@ -3864,30 +3892,30 @@
     <row r="115" spans="1:5" ht="15.75" outlineLevel="1" thickBot="1"/>
     <row r="116" spans="1:5" s="7" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
       <c r="A116" s="9" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B116" s="8"/>
     </row>
     <row r="117" spans="1:5" ht="45" outlineLevel="1">
       <c r="B117" s="6" t="s">
-        <v>292</v>
+        <v>263</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>305</v>
+        <v>482</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="45" outlineLevel="1">
       <c r="B118" s="6" t="s">
-        <v>293</v>
+        <v>264</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>336</v>
+        <v>305</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="30" outlineLevel="1">
@@ -3898,21 +3926,21 @@
         <v>10</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>304</v>
+        <v>275</v>
       </c>
       <c r="E119" s="10" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="75" outlineLevel="1">
       <c r="B120" s="2" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>303</v>
+        <v>274</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>342</v>
+        <v>311</v>
       </c>
       <c r="E120" s="10" t="s">
         <v>14</v>
@@ -3920,13 +3948,13 @@
     </row>
     <row r="121" spans="1:5" ht="45" outlineLevel="1">
       <c r="B121" s="2" t="s">
-        <v>297</v>
+        <v>268</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>302</v>
+        <v>273</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>306</v>
+        <v>276</v>
       </c>
       <c r="E121" s="10" t="s">
         <v>14</v>
@@ -3934,13 +3962,13 @@
     </row>
     <row r="122" spans="1:5" ht="30" outlineLevel="1">
       <c r="B122" s="2" t="s">
-        <v>298</v>
+        <v>269</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>299</v>
+        <v>270</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>307</v>
+        <v>277</v>
       </c>
       <c r="E122" s="10" t="s">
         <v>14</v>
@@ -3948,13 +3976,13 @@
     </row>
     <row r="123" spans="1:5" ht="90" outlineLevel="1">
       <c r="B123" s="2" t="s">
-        <v>300</v>
+        <v>271</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>301</v>
+        <v>272</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>341</v>
+        <v>310</v>
       </c>
       <c r="E123" s="10" t="s">
         <v>14</v>
@@ -3962,10 +3990,10 @@
     </row>
     <row r="124" spans="1:5" ht="30" outlineLevel="1">
       <c r="B124" s="3" t="s">
-        <v>308</v>
+        <v>278</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>343</v>
+        <v>312</v>
       </c>
       <c r="E124" s="10" t="s">
         <v>14</v>
@@ -3973,10 +4001,10 @@
     </row>
     <row r="125" spans="1:5" ht="30" outlineLevel="1">
       <c r="B125" s="3" t="s">
-        <v>309</v>
+        <v>279</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>344</v>
+        <v>313</v>
       </c>
       <c r="E125" s="10" t="s">
         <v>14</v>
@@ -3984,10 +4012,10 @@
     </row>
     <row r="126" spans="1:5" ht="30" outlineLevel="1">
       <c r="B126" s="3" t="s">
-        <v>310</v>
+        <v>280</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>316</v>
+        <v>286</v>
       </c>
       <c r="E126" s="10" t="s">
         <v>14</v>
@@ -3995,10 +4023,10 @@
     </row>
     <row r="127" spans="1:5" ht="30" outlineLevel="1">
       <c r="B127" s="3" t="s">
-        <v>311</v>
+        <v>281</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>317</v>
+        <v>287</v>
       </c>
       <c r="E127" s="10" t="s">
         <v>14</v>
@@ -4006,27 +4034,27 @@
     </row>
     <row r="128" spans="1:5" ht="60" outlineLevel="1">
       <c r="B128" s="3" t="s">
-        <v>312</v>
+        <v>282</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>318</v>
+        <v>288</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>321</v>
+        <v>291</v>
       </c>
       <c r="E128" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="30" outlineLevel="1">
+    <row r="129" spans="1:5" ht="45" outlineLevel="1">
       <c r="B129" s="3" t="s">
-        <v>313</v>
+        <v>283</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>319</v>
+        <v>289</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>323</v>
+        <v>486</v>
       </c>
       <c r="E129" s="10" t="s">
         <v>14</v>
@@ -4034,13 +4062,13 @@
     </row>
     <row r="130" spans="1:5" ht="45" outlineLevel="1">
       <c r="B130" s="3" t="s">
-        <v>314</v>
+        <v>284</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>320</v>
+        <v>290</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>322</v>
+        <v>292</v>
       </c>
       <c r="E130" s="10" t="s">
         <v>14</v>
@@ -4048,13 +4076,13 @@
     </row>
     <row r="131" spans="1:5" ht="105" outlineLevel="1">
       <c r="B131" s="4" t="s">
-        <v>324</v>
+        <v>293</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>334</v>
+        <v>303</v>
       </c>
       <c r="E131" s="10" t="s">
         <v>14</v>
@@ -4062,13 +4090,13 @@
     </row>
     <row r="132" spans="1:5" ht="90" outlineLevel="1">
       <c r="B132" s="4" t="s">
-        <v>325</v>
+        <v>294</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>332</v>
+        <v>301</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>337</v>
+        <v>306</v>
       </c>
       <c r="E132" s="10" t="s">
         <v>14</v>
@@ -4076,13 +4104,13 @@
     </row>
     <row r="133" spans="1:5" ht="45" outlineLevel="1">
       <c r="B133" s="4" t="s">
-        <v>326</v>
+        <v>295</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>340</v>
+        <v>309</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>339</v>
+        <v>308</v>
       </c>
       <c r="E133" s="10" t="s">
         <v>14</v>
@@ -4090,27 +4118,27 @@
     </row>
     <row r="134" spans="1:5" ht="60" outlineLevel="1">
       <c r="B134" s="5" t="s">
-        <v>328</v>
+        <v>297</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>330</v>
+        <v>299</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>335</v>
+        <v>304</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>327</v>
+        <v>296</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="120" outlineLevel="1">
       <c r="B135" s="5" t="s">
-        <v>329</v>
+        <v>298</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>333</v>
+        <v>302</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>338</v>
+        <v>307</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>22</v>
@@ -4118,111 +4146,111 @@
     </row>
     <row r="136" spans="1:5" ht="30.75" outlineLevel="1" thickBot="1">
       <c r="B136" s="3" t="s">
-        <v>315</v>
+        <v>285</v>
       </c>
     </row>
     <row r="137" spans="1:5" s="7" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
       <c r="A137" s="9" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B137" s="8"/>
     </row>
-    <row r="138" spans="1:5" ht="30" outlineLevel="1">
+    <row r="138" spans="1:5" ht="45" outlineLevel="1">
       <c r="B138" s="6" t="s">
-        <v>345</v>
+        <v>314</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>352</v>
+        <v>321</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>354</v>
+        <v>485</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="45" outlineLevel="1">
       <c r="B139" s="6" t="s">
-        <v>346</v>
+        <v>315</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>353</v>
+        <v>322</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" ht="90" outlineLevel="1">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="75" outlineLevel="1">
       <c r="B140" s="5" t="s">
-        <v>347</v>
+        <v>316</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>357</v>
+        <v>325</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>359</v>
+        <v>483</v>
       </c>
       <c r="E140" s="11" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" ht="30" outlineLevel="1">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="45" outlineLevel="1">
       <c r="B141" s="5" t="s">
-        <v>348</v>
+        <v>317</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>358</v>
+        <v>326</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>360</v>
+        <v>484</v>
       </c>
       <c r="E141" s="11" t="s">
-        <v>356</v>
+        <v>324</v>
       </c>
     </row>
     <row r="142" spans="1:5" ht="105" outlineLevel="1">
       <c r="B142" s="5" t="s">
-        <v>349</v>
+        <v>318</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>361</v>
+        <v>327</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>365</v>
+        <v>330</v>
       </c>
       <c r="E142" s="11" t="s">
-        <v>356</v>
+        <v>324</v>
       </c>
     </row>
     <row r="143" spans="1:5" ht="45" outlineLevel="1">
       <c r="B143" s="5" t="s">
-        <v>350</v>
+        <v>319</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>362</v>
+        <v>328</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>363</v>
+        <v>491</v>
       </c>
       <c r="E143" s="11" t="s">
-        <v>356</v>
+        <v>324</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="45" outlineLevel="1">
       <c r="B144" s="5" t="s">
-        <v>351</v>
+        <v>320</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>364</v>
+        <v>329</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>366</v>
+        <v>331</v>
       </c>
       <c r="E144" s="11" t="s">
-        <v>356</v>
+        <v>324</v>
       </c>
     </row>
     <row r="145" spans="1:5" ht="15.75" outlineLevel="1" thickBot="1"/>
     <row r="146" spans="1:5" s="7" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
       <c r="A146" s="9" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B146" s="8"/>
     </row>
@@ -4231,10 +4259,10 @@
         <v>9</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>384</v>
+        <v>349</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>385</v>
+        <v>350</v>
       </c>
       <c r="E147" s="10" t="s">
         <v>14</v>
@@ -4242,13 +4270,13 @@
     </row>
     <row r="148" spans="1:5" outlineLevel="1">
       <c r="B148" s="2" t="s">
-        <v>367</v>
+        <v>332</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>369</v>
+        <v>334</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>370</v>
+        <v>335</v>
       </c>
       <c r="E148" s="10" t="s">
         <v>14</v>
@@ -4256,21 +4284,21 @@
     </row>
     <row r="149" spans="1:5" ht="30" outlineLevel="1">
       <c r="B149" s="2" t="s">
-        <v>368</v>
+        <v>333</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>386</v>
+        <v>351</v>
       </c>
       <c r="E149" s="11" t="s">
-        <v>389</v>
+        <v>353</v>
       </c>
     </row>
     <row r="150" spans="1:5" outlineLevel="1">
       <c r="B150" s="2" t="s">
-        <v>371</v>
+        <v>336</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>372</v>
+        <v>337</v>
       </c>
       <c r="E150" s="10" t="s">
         <v>14</v>
@@ -4278,10 +4306,10 @@
     </row>
     <row r="151" spans="1:5" outlineLevel="1">
       <c r="B151" s="2" t="s">
-        <v>374</v>
+        <v>339</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>373</v>
+        <v>338</v>
       </c>
       <c r="E151" s="10" t="s">
         <v>14</v>
@@ -4289,24 +4317,24 @@
     </row>
     <row r="152" spans="1:5" outlineLevel="1">
       <c r="B152" s="2" t="s">
-        <v>376</v>
+        <v>341</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>375</v>
+        <v>340</v>
       </c>
       <c r="E152" s="10" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
     </row>
     <row r="153" spans="1:5" ht="30" outlineLevel="1">
       <c r="B153" s="2" t="s">
-        <v>377</v>
+        <v>342</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>378</v>
+        <v>343</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>379</v>
+        <v>344</v>
       </c>
       <c r="E153" s="10" t="s">
         <v>14</v>
@@ -4314,27 +4342,27 @@
     </row>
     <row r="154" spans="1:5" outlineLevel="1">
       <c r="B154" s="2" t="s">
-        <v>381</v>
+        <v>346</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>380</v>
+        <v>345</v>
       </c>
       <c r="E154" s="10" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" ht="30" outlineLevel="1">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="45" outlineLevel="1">
       <c r="B155" s="2" t="s">
-        <v>383</v>
+        <v>348</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>382</v>
+        <v>347</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>387</v>
+        <v>496</v>
       </c>
       <c r="E155" s="10" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
     </row>
     <row r="156" spans="1:5" ht="60" outlineLevel="1">
@@ -4342,43 +4370,43 @@
         <v>12</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>393</v>
+        <v>357</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>396</v>
+        <v>360</v>
       </c>
       <c r="E156" s="6" t="s">
-        <v>394</v>
+        <v>358</v>
       </c>
     </row>
     <row r="157" spans="1:5" ht="75" outlineLevel="1">
       <c r="B157" s="5" t="s">
-        <v>388</v>
+        <v>352</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>390</v>
+        <v>354</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>395</v>
+        <v>359</v>
       </c>
       <c r="E157" s="11" t="s">
-        <v>356</v>
+        <v>324</v>
       </c>
     </row>
     <row r="158" spans="1:5" outlineLevel="1">
       <c r="B158" s="5" t="s">
-        <v>391</v>
+        <v>355</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>392</v>
+        <v>356</v>
       </c>
     </row>
     <row r="159" spans="1:5" outlineLevel="1">
       <c r="B159" s="5" t="s">
-        <v>397</v>
+        <v>361</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>398</v>
+        <v>362</v>
       </c>
       <c r="E159" s="10" t="s">
         <v>14</v>
@@ -4386,24 +4414,24 @@
     </row>
     <row r="160" spans="1:5" ht="30" outlineLevel="1">
       <c r="B160" s="5" t="s">
-        <v>399</v>
+        <v>363</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>400</v>
+        <v>364</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>403</v>
+        <v>367</v>
       </c>
       <c r="E160" s="11" t="s">
-        <v>356</v>
+        <v>324</v>
       </c>
     </row>
     <row r="161" spans="2:5" outlineLevel="1">
       <c r="B161" s="5" t="s">
-        <v>401</v>
+        <v>365</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>402</v>
+        <v>366</v>
       </c>
       <c r="E161" s="10" t="s">
         <v>14</v>
@@ -4411,10 +4439,10 @@
     </row>
     <row r="162" spans="2:5" outlineLevel="1">
       <c r="B162" s="5" t="s">
-        <v>404</v>
+        <v>368</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>405</v>
+        <v>369</v>
       </c>
       <c r="E162" s="10" t="s">
         <v>14</v>
@@ -4422,24 +4450,24 @@
     </row>
     <row r="163" spans="2:5" outlineLevel="1">
       <c r="B163" s="5" t="s">
-        <v>404</v>
+        <v>368</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>406</v>
+        <v>370</v>
       </c>
       <c r="E163" s="11" t="s">
-        <v>356</v>
+        <v>324</v>
       </c>
     </row>
     <row r="164" spans="2:5" ht="120" outlineLevel="1">
       <c r="B164" s="5" t="s">
-        <v>407</v>
+        <v>371</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>408</v>
+        <v>372</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>416</v>
+        <v>492</v>
       </c>
       <c r="E164" s="10" t="s">
         <v>14</v>
@@ -4447,10 +4475,10 @@
     </row>
     <row r="165" spans="2:5" outlineLevel="1">
       <c r="B165" s="5" t="s">
-        <v>412</v>
+        <v>376</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>414</v>
+        <v>378</v>
       </c>
       <c r="E165" s="10" t="s">
         <v>14</v>
@@ -4458,10 +4486,10 @@
     </row>
     <row r="166" spans="2:5" outlineLevel="1">
       <c r="B166" s="5" t="s">
-        <v>413</v>
+        <v>377</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>415</v>
+        <v>379</v>
       </c>
       <c r="E166" s="10" t="s">
         <v>14</v>
@@ -4469,10 +4497,10 @@
     </row>
     <row r="167" spans="2:5" outlineLevel="1">
       <c r="B167" s="5" t="s">
-        <v>417</v>
+        <v>380</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>418</v>
+        <v>381</v>
       </c>
       <c r="E167" s="10" t="s">
         <v>14</v>
@@ -4480,24 +4508,24 @@
     </row>
     <row r="168" spans="2:5" ht="30" outlineLevel="1">
       <c r="B168" s="5" t="s">
-        <v>419</v>
+        <v>382</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>420</v>
+        <v>383</v>
       </c>
       <c r="E168" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="169" spans="2:5" outlineLevel="1">
+    <row r="169" spans="2:5" ht="30" outlineLevel="1">
       <c r="B169" s="5" t="s">
-        <v>421</v>
+        <v>384</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>422</v>
+        <v>385</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>423</v>
+        <v>495</v>
       </c>
       <c r="E169" s="10" t="s">
         <v>14</v>
@@ -4505,13 +4533,13 @@
     </row>
     <row r="170" spans="2:5" ht="60" outlineLevel="1">
       <c r="B170" s="5" t="s">
-        <v>425</v>
+        <v>387</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>424</v>
+        <v>386</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>426</v>
+        <v>388</v>
       </c>
       <c r="E170" s="10" t="s">
         <v>14</v>
@@ -4519,10 +4547,10 @@
     </row>
     <row r="171" spans="2:5" outlineLevel="1">
       <c r="B171" s="5" t="s">
-        <v>427</v>
+        <v>389</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>428</v>
+        <v>390</v>
       </c>
       <c r="E171" s="10" t="s">
         <v>14</v>
@@ -4530,41 +4558,41 @@
     </row>
     <row r="172" spans="2:5" ht="60" outlineLevel="1">
       <c r="B172" s="5" t="s">
-        <v>429</v>
+        <v>391</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>438</v>
+        <v>400</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>437</v>
+        <v>399</v>
       </c>
       <c r="E172" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="173" spans="2:5" ht="30" outlineLevel="1">
+    <row r="173" spans="2:5" ht="45" outlineLevel="1">
       <c r="B173" s="5" t="s">
-        <v>430</v>
+        <v>392</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>439</v>
+        <v>401</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>440</v>
+        <v>493</v>
       </c>
       <c r="E173" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="174" spans="2:5" ht="30" outlineLevel="1">
+    <row r="174" spans="2:5" ht="45" outlineLevel="1">
       <c r="B174" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>441</v>
+        <v>402</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>442</v>
+        <v>494</v>
       </c>
       <c r="E174" s="10" t="s">
         <v>14</v>
@@ -4572,10 +4600,10 @@
     </row>
     <row r="175" spans="2:5" outlineLevel="1">
       <c r="B175" s="5" t="s">
-        <v>431</v>
+        <v>393</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>432</v>
+        <v>394</v>
       </c>
       <c r="E175" s="10" t="s">
         <v>14</v>
@@ -4583,13 +4611,13 @@
     </row>
     <row r="176" spans="2:5" ht="90" outlineLevel="1">
       <c r="B176" s="5" t="s">
-        <v>433</v>
+        <v>395</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>434</v>
+        <v>396</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>443</v>
+        <v>403</v>
       </c>
       <c r="E176" s="10" t="s">
         <v>14</v>
@@ -4597,31 +4625,31 @@
     </row>
     <row r="177" spans="1:5" outlineLevel="1">
       <c r="B177" s="5" t="s">
-        <v>435</v>
+        <v>397</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>436</v>
+        <v>398</v>
       </c>
       <c r="E177" s="11" t="s">
-        <v>356</v>
+        <v>324</v>
       </c>
     </row>
     <row r="178" spans="1:5" ht="15.75" outlineLevel="1" thickBot="1"/>
     <row r="179" spans="1:5" s="7" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
       <c r="A179" s="9" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B179" s="8"/>
     </row>
     <row r="180" spans="1:5" ht="30" outlineLevel="1">
       <c r="B180" s="6" t="s">
-        <v>444</v>
+        <v>404</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>457</v>
+        <v>415</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>445</v>
+        <v>405</v>
       </c>
       <c r="E180" s="10" t="s">
         <v>14</v>
@@ -4629,237 +4657,237 @@
     </row>
     <row r="181" spans="1:5" ht="45" outlineLevel="1">
       <c r="B181" s="5" t="s">
-        <v>447</v>
+        <v>407</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>456</v>
+        <v>414</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>448</v>
+        <v>408</v>
       </c>
       <c r="E181" s="11" t="s">
-        <v>356</v>
+        <v>324</v>
       </c>
     </row>
     <row r="182" spans="1:5" ht="60" outlineLevel="1">
       <c r="B182" s="5" t="s">
-        <v>446</v>
+        <v>406</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>455</v>
+        <v>413</v>
       </c>
       <c r="E182" s="11" t="s">
-        <v>356</v>
+        <v>324</v>
       </c>
     </row>
     <row r="183" spans="1:5" ht="45" outlineLevel="1">
       <c r="B183" s="5" t="s">
-        <v>449</v>
+        <v>409</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>454</v>
+        <v>412</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>491</v>
+        <v>446</v>
       </c>
       <c r="E183" s="11" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" ht="60" outlineLevel="1">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="75" outlineLevel="1">
       <c r="B184" s="5" t="s">
-        <v>451</v>
+        <v>410</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>450</v>
+        <v>497</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>452</v>
+        <v>498</v>
       </c>
       <c r="E184" s="11" t="s">
-        <v>356</v>
+        <v>324</v>
       </c>
     </row>
     <row r="185" spans="1:5" ht="60" outlineLevel="1">
       <c r="B185" s="5" t="s">
-        <v>430</v>
+        <v>392</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>458</v>
+        <v>416</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>453</v>
+        <v>411</v>
       </c>
       <c r="E185" s="11" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" ht="45" outlineLevel="1">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="60" outlineLevel="1">
       <c r="B186" s="5" t="s">
-        <v>429</v>
+        <v>391</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>459</v>
+        <v>417</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>466</v>
+        <v>501</v>
       </c>
       <c r="E186" s="11" t="s">
-        <v>356</v>
+        <v>324</v>
       </c>
     </row>
     <row r="187" spans="1:5" ht="60" outlineLevel="1">
       <c r="B187" s="5" t="s">
-        <v>461</v>
+        <v>419</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>462</v>
+        <v>420</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>465</v>
+        <v>422</v>
       </c>
       <c r="E187" s="11" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" ht="45" outlineLevel="1">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" ht="60" outlineLevel="1">
       <c r="B188" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>463</v>
+        <v>421</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>464</v>
+        <v>500</v>
       </c>
       <c r="E188" s="11" t="s">
-        <v>356</v>
+        <v>324</v>
       </c>
     </row>
     <row r="189" spans="1:5" ht="195" outlineLevel="1">
       <c r="B189" s="5" t="s">
-        <v>460</v>
+        <v>418</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>467</v>
+        <v>423</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>468</v>
+        <v>499</v>
       </c>
       <c r="E189" s="11" t="s">
-        <v>356</v>
+        <v>324</v>
       </c>
     </row>
     <row r="190" spans="1:5" ht="60" outlineLevel="1">
       <c r="B190" s="5" t="s">
-        <v>469</v>
+        <v>424</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>470</v>
+        <v>425</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>471</v>
+        <v>426</v>
       </c>
       <c r="E190" s="11" t="s">
-        <v>356</v>
+        <v>324</v>
       </c>
     </row>
     <row r="191" spans="1:5" ht="45" outlineLevel="1">
       <c r="B191" s="5" t="s">
-        <v>478</v>
+        <v>433</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>479</v>
+        <v>434</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>481</v>
+        <v>436</v>
       </c>
       <c r="E191" s="11" t="s">
-        <v>356</v>
+        <v>324</v>
       </c>
     </row>
     <row r="192" spans="1:5" ht="75" outlineLevel="1">
       <c r="B192" s="5" t="s">
-        <v>472</v>
+        <v>427</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>480</v>
+        <v>435</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>482</v>
+        <v>437</v>
       </c>
       <c r="E192" s="11" t="s">
-        <v>356</v>
+        <v>324</v>
       </c>
     </row>
     <row r="193" spans="2:5" ht="60" outlineLevel="1">
       <c r="B193" s="5" t="s">
-        <v>473</v>
+        <v>428</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>483</v>
+        <v>438</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>484</v>
+        <v>439</v>
       </c>
       <c r="E193" s="11" t="s">
-        <v>356</v>
+        <v>324</v>
       </c>
     </row>
     <row r="194" spans="2:5" ht="45" outlineLevel="1">
       <c r="B194" s="5" t="s">
-        <v>474</v>
+        <v>429</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>485</v>
+        <v>440</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>486</v>
+        <v>441</v>
       </c>
       <c r="E194" s="11" t="s">
-        <v>356</v>
+        <v>324</v>
       </c>
     </row>
     <row r="195" spans="2:5" ht="75" outlineLevel="1">
       <c r="B195" s="5" t="s">
-        <v>475</v>
+        <v>430</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>487</v>
+        <v>442</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>488</v>
+        <v>443</v>
       </c>
       <c r="E195" s="11" t="s">
-        <v>356</v>
+        <v>324</v>
       </c>
     </row>
     <row r="196" spans="2:5" ht="45" outlineLevel="1">
       <c r="B196" s="5" t="s">
-        <v>476</v>
+        <v>431</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>489</v>
+        <v>444</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>490</v>
+        <v>445</v>
       </c>
       <c r="E196" s="11" t="s">
-        <v>356</v>
+        <v>324</v>
       </c>
     </row>
     <row r="197" spans="2:5" ht="105" outlineLevel="1">
       <c r="B197" s="5" t="s">
-        <v>477</v>
+        <v>432</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>492</v>
+        <v>447</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>493</v>
+        <v>448</v>
       </c>
       <c r="E197" s="11" t="s">
-        <v>356</v>
+        <v>324</v>
       </c>
     </row>
     <row r="198" spans="2:5" outlineLevel="1"/>

--- a/Библиотека_Robin.xlsx
+++ b/Библиотека_Robin.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\cs\prj15\Robin\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="28755" windowHeight="12585"/>
   </bookViews>
@@ -17,7 +12,7 @@
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$A$209</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$A$220</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A:$E</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="549">
   <si>
     <t>описание</t>
   </si>
@@ -375,9 +370,6 @@
 Передает выбранный объект в Context.TransferObject, устанавливает DialogResult
 Закрывает форму
 </t>
-  </si>
-  <si>
-    <t>GridQueryParamsSet</t>
   </si>
   <si>
     <t>Обработка события получения данных списка</t>
@@ -2042,11 +2034,86 @@
   <si>
     <t>Вызовет процедуру dm.pLog, если для приложения разрешено логирование</t>
   </si>
+  <si>
+    <t>DataList_QueryParamsSet</t>
+  </si>
+  <si>
+    <t>SetToolButtonsForGrid</t>
+  </si>
+  <si>
+    <t>Установка кнопок управления гридом</t>
+  </si>
+  <si>
+    <t>Вызывается из объекта DataList как обработчик события ActivateList списка. Подписка на событие списка происходит при инициализации формы. Управляет доступностью кнопок управления гридом (фильтр, поиск и т.д.)</t>
+  </si>
+  <si>
+    <t>ActivateList</t>
+  </si>
+  <si>
+    <t>Активизация грида (получение фокуса)</t>
+  </si>
+  <si>
+    <t>Срабатывает при установке фокуса</t>
+  </si>
+  <si>
+    <t>DisableFilter</t>
+  </si>
+  <si>
+    <t>DisableFind</t>
+  </si>
+  <si>
+    <t>DisableExcel</t>
+  </si>
+  <si>
+    <t>DisableColsOperate</t>
+  </si>
+  <si>
+    <t>DisableSort</t>
+  </si>
+  <si>
+    <t>Нельзя фильтровать</t>
+  </si>
+  <si>
+    <t>Нельзя искать</t>
+  </si>
+  <si>
+    <t>Нельзя выгружать в эксель</t>
+  </si>
+  <si>
+    <t>Нельзя управлять столбцами</t>
+  </si>
+  <si>
+    <t>Нельзя сортировать</t>
+  </si>
+  <si>
+    <t>DisableHighlightSelected</t>
+  </si>
+  <si>
+    <t>DisableHighlightChecked</t>
+  </si>
+  <si>
+    <t>Отменить подсветку выделенных строк</t>
+  </si>
+  <si>
+    <t>Отменить выделение отмеченных строк</t>
+  </si>
+  <si>
+    <t>CheckedRowBackColor</t>
+  </si>
+  <si>
+    <t>Цвет отмеченных строк</t>
+  </si>
+  <si>
+    <t>CheckedRowForeColor</t>
+  </si>
+  <si>
+    <t>Цвет шрифта отмеченных строк</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2305,7 +2372,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2340,7 +2407,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2553,11 +2620,11 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E206"/>
+  <dimension ref="A1:E217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D211" sqref="D211"/>
+      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -2572,7 +2639,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -2668,7 +2735,7 @@
         <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>14</v>
@@ -2683,7 +2750,7 @@
         <v>73</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>14</v>
@@ -2695,10 +2762,10 @@
         <v>17</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>18</v>
@@ -2710,7 +2777,7 @@
         <v>19</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>82</v>
@@ -2725,7 +2792,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>82</v>
@@ -2740,13 +2807,13 @@
         <v>21</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2758,7 +2825,7 @@
         <v>24</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>2</v>
@@ -2773,10 +2840,10 @@
         <v>26</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="105" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2788,7 +2855,7 @@
         <v>28</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>14</v>
@@ -2803,7 +2870,7 @@
         <v>30</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E17" s="10" t="s">
         <v>14</v>
@@ -2818,7 +2885,7 @@
         <v>32</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>14</v>
@@ -2833,7 +2900,7 @@
         <v>34</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E19" s="10" t="s">
         <v>14</v>
@@ -2889,7 +2956,7 @@
         <v>45</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2897,10 +2964,10 @@
         <v>53</v>
       </c>
       <c r="C26" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>460</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>461</v>
       </c>
       <c r="E26" s="10" t="s">
         <v>14</v>
@@ -2922,10 +2989,10 @@
         <v>47</v>
       </c>
       <c r="C28" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>198</v>
       </c>
       <c r="E28" s="10" t="s">
         <v>14</v>
@@ -2947,10 +3014,10 @@
         <v>49</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>2</v>
@@ -2964,7 +3031,7 @@
         <v>66</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2975,7 +3042,7 @@
         <v>65</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="33" spans="2:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2983,10 +3050,10 @@
         <v>54</v>
       </c>
       <c r="C33" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>464</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>465</v>
       </c>
       <c r="E33" s="10" t="s">
         <v>14</v>
@@ -3028,7 +3095,7 @@
         <v>71</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E36" s="10" t="s">
         <v>14</v>
@@ -3084,7 +3151,7 @@
         <v>94</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E40" s="10" t="s">
         <v>14</v>
@@ -3112,7 +3179,7 @@
         <v>98</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E42" s="10" t="s">
         <v>14</v>
@@ -3134,13 +3201,13 @@
     </row>
     <row r="44" spans="2:5" ht="105" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B44" s="5" t="s">
-        <v>102</v>
+        <v>524</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>2</v>
@@ -3148,1970 +3215,2097 @@
     </row>
     <row r="45" spans="2:5" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B45" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="2:5" ht="75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:5" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B46" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" ht="75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C47" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D46" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D47" s="2" t="s">
+      <c r="D48" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="E47" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="5" t="s">
+      <c r="C49" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="D49" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D48" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E48" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="50" spans="1:5" s="7" customFormat="1" ht="22.5" customHeight="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="9" t="s">
+      <c r="E49" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="51" spans="1:5" s="7" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B50" s="8"/>
-    </row>
-    <row r="51" spans="1:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="8"/>
+    </row>
+    <row r="52" spans="1:5" ht="45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B52" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="2" t="s">
+    <row r="53" spans="1:5" ht="45" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="75" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C54" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="135" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D53" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="135" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="2" t="s">
+      <c r="C55" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="D55" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="45" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="E54" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E55" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="3" t="s">
-        <v>127</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="E56" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="60" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="45" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E64" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" ht="45" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E66" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" ht="45" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="E56" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="E57" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="D58" s="2" t="s">
+      <c r="E67" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" ht="45" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C68" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="E58" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E59" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E60" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E61" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E62" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E63" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D64" s="2" t="s">
+      <c r="D68" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="E64" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="3" t="s">
+      <c r="E68" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="E69" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="E70" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="E71" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="E72" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="E73" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="E74" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="E75" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" ht="120" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E65" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5" ht="120" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="4" t="s">
+      <c r="C76" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E76" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" ht="150" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E66" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="67" spans="2:5" ht="150" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="4" t="s">
+      <c r="C77" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E77" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" ht="60" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="E78" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" ht="75" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E67" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="4" t="s">
+      <c r="C79" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D79" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="E68" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="69" spans="2:5" ht="75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E69" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="70" spans="2:5" ht="120" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E70" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="71" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E71" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="72" spans="2:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="2:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="E74" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="75" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E75" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="76" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="5" t="s">
-        <v>448</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="E76" s="10"/>
-    </row>
-    <row r="77" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="E77" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="78" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E78" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="79" spans="2:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>200</v>
-      </c>
       <c r="E79" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="80" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="5" t="s">
-        <v>165</v>
+    <row r="80" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="4" t="s">
+        <v>528</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>190</v>
+        <v>529</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>530</v>
       </c>
       <c r="E80" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:5" ht="120" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B81" s="5" t="s">
         <v>166</v>
       </c>
       <c r="C81" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E81" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E82" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="E85" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E86" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="E87" s="10"/>
+    </row>
+    <row r="88" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E88" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E89" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E90" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E91" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E92" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E93" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E94" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E95" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E96" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="45" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E97" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="99" spans="1:5" s="7" customFormat="1" ht="22.5" customHeight="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B99" s="8"/>
+    </row>
+    <row r="100" spans="1:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C100" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="D81" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E81" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="E82" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E83" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="C84" s="2" t="s">
+      <c r="D100" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="E84" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E85" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E86" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="88" spans="1:5" s="7" customFormat="1" ht="22.5" customHeight="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="B88" s="8"/>
-    </row>
-    <row r="89" spans="1:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="6" t="s">
+      <c r="C101" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="D101" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="E101" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="E102" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="105" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B104" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B105" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B106" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B107" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B108" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B109" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B110" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E110" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B111" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E111" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B112" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E112" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B113" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E113" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B114" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E114" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B115" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E115" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B116" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="E116" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B117" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D117" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="D89" s="2" t="s">
+      <c r="E117" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B118" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="E118" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="120" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B119" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="E119" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="240" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B120" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="E120" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B121" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E121" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B122" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C122" s="2" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="E90" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="E91" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="105" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="E92" s="2" t="s">
+      <c r="D122" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E122" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="150" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B123" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E123" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="315" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B124" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="E124" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="165" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B125" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="E125" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="2" t="s">
+    <row r="126" spans="1:5" ht="165" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B126" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="128" spans="1:5" s="7" customFormat="1" ht="22.5" customHeight="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B128" s="8"/>
+    </row>
+    <row r="129" spans="2:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B129" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="130" spans="2:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B130" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="131" spans="2:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B131" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E131" s="10" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="132" spans="2:5" ht="75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B132" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C93" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="97" spans="2:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="98" spans="2:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="99" spans="2:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="E99" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="100" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="E100" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="101" spans="2:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="E101" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="102" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="E102" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="103" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="E103" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="104" spans="2:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="E104" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="105" spans="2:5" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="3" t="s">
-        <v>498</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="D105" s="2" t="s">
+      <c r="C132" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="E132" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="133" spans="2:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B133" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E133" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="134" spans="2:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B134" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E134" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="135" spans="2:5" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B135" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="E135" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="136" spans="2:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B136" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="E136" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="137" spans="2:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B137" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="E137" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="138" spans="2:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B138" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E138" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="139" spans="2:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B139" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E139" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="140" spans="2:5" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B140" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D140" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="E105" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="106" spans="2:5" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="E106" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="107" spans="2:5" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="E107" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="108" spans="2:5" ht="120" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="E108" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="109" spans="2:5" ht="240" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="E109" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="110" spans="2:5" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="E110" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="111" spans="2:5" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="E111" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="112" spans="2:5" ht="150" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="E112" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" ht="315" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="E113" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" ht="165" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" ht="165" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="117" spans="1:5" s="7" customFormat="1" ht="22.5" customHeight="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="B117" s="8"/>
-    </row>
-    <row r="118" spans="1:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="D118" s="2" t="s">
+      <c r="E140" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="141" spans="2:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B141" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E141" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="142" spans="2:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B142" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E142" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="143" spans="2:5" ht="105" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B143" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="E143" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="144" spans="2:5" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B144" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="E144" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B145" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E145" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B146" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="120" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B147" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="30.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B148" s="3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" s="7" customFormat="1" ht="22.5" customHeight="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B149" s="8"/>
+    </row>
+    <row r="150" spans="1:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B150" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B151" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B152" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D152" s="2" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="C119" s="2" t="s">
+      <c r="E152" s="11" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B153" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="E153" s="11" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="105" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B154" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="E154" s="11" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B155" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="E155" s="11" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B156" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="E156" s="11" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="158" spans="1:5" s="7" customFormat="1" ht="22.5" customHeight="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B158" s="8"/>
+    </row>
+    <row r="159" spans="1:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B159" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="E159" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B160" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E160" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="161" spans="2:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B161" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="E161" s="11" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="162" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B162" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="E162" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="163" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B163" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="E163" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="164" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B164" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="E164" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="D119" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B120" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="E120" s="10" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" ht="75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B121" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="E121" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B122" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="E122" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B123" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="E123" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B124" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="E124" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B125" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="E125" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B126" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="E126" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="E127" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="E128" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B129" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="E129" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B130" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="E130" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B131" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="E131" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" ht="105" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B132" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="E132" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B133" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="E133" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="E134" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B135" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" ht="120" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B136" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" ht="30.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B137" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" s="7" customFormat="1" ht="22.5" customHeight="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="B138" s="8"/>
-    </row>
-    <row r="139" spans="1:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B139" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B140" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="D140" s="2" t="s">
+    </row>
+    <row r="165" spans="2:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B165" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="E165" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="166" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B166" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="E166" s="10" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="167" spans="2:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B167" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="E167" s="10" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="168" spans="2:5" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B168" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="E168" s="6" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="169" spans="2:5" ht="75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B169" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E169" s="11" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B141" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="E141" s="11" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B142" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="E142" s="11" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" ht="105" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B143" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="E143" s="11" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B144" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="D144" s="2" t="s">
+    <row r="170" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B170" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="E170" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="171" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B171" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="E171" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="172" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B172" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="E172" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="173" spans="2:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B173" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="E173" s="11" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="174" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B174" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="E174" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="175" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B175" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="E175" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="176" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B176" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="E176" s="11" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="177" spans="2:5" ht="120" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B177" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="D177" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="E144" s="11" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B145" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="E145" s="11" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="147" spans="1:5" s="7" customFormat="1" ht="22.5" customHeight="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B147" s="8"/>
-    </row>
-    <row r="148" spans="1:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B148" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="E148" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B149" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="E149" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B150" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="E150" s="11" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B151" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="E151" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B152" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="E152" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B153" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="E153" s="10" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B154" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="E154" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B155" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="E155" s="10" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B156" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="E156" s="10" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B157" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="E157" s="6" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" ht="75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B158" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="E158" s="11" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B159" s="5" t="s">
-        <v>507</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="E159" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B160" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="E160" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="161" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B161" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="E161" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="162" spans="2:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B162" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="E162" s="11" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="163" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B163" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="E163" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="164" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B164" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="E164" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="165" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B165" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="E165" s="11" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="166" spans="2:5" ht="120" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B166" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="D166" s="2" t="s">
+      <c r="E177" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="178" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B178" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="E178" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="179" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B179" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="E179" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="180" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B180" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="E180" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="181" spans="2:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B181" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E181" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="182" spans="2:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B182" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="E182" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="183" spans="2:5" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B183" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="E183" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="184" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B184" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="E184" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="185" spans="2:5" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B185" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="E185" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="186" spans="2:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B186" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D186" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="E166" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="167" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B167" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="E167" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="168" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B168" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="E168" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="169" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B169" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="E169" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="170" spans="2:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B170" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="E170" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="171" spans="2:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B171" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="D171" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="E171" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="172" spans="2:5" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B172" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="D172" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="E172" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="173" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B173" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="E173" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="174" spans="2:5" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B174" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="D174" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="E174" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="175" spans="2:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B175" s="5" t="s">
+      <c r="E186" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="187" spans="2:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B187" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C187" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="E187" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="188" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B188" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="C175" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="E175" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="176" spans="2:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B176" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C176" s="5" t="s">
+      <c r="C188" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="E188" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="189" spans="2:5" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B189" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="D189" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="D176" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="E176" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B177" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="E177" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B178" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="C178" s="2" t="s">
+      <c r="E189" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="190" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B190" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="D178" s="2" t="s">
+      <c r="C190" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="E190" s="11" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="191" spans="2:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B191" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="E191" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="192" spans="2:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B192" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="E192" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="194" spans="1:5" s="7" customFormat="1" ht="22.5" customHeight="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A194" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B194" s="8"/>
+    </row>
+    <row r="195" spans="1:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B195" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="E178" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B179" s="5" t="s">
-        <v>396</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="E179" s="11" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B180" s="5" t="s">
-        <v>519</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="D180" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="E180" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B181" s="5" t="s">
-        <v>522</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="D181" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="E181" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="183" spans="1:5" s="7" customFormat="1" ht="22.5" customHeight="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="B183" s="8"/>
-    </row>
-    <row r="184" spans="1:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B184" s="6" t="s">
+      <c r="C195" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="D195" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="C184" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="E184" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B185" s="5" t="s">
+      <c r="E195" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B196" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="D196" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="C185" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="D185" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="E185" s="11" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B186" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="E186" s="11" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B187" s="5" t="s">
-        <v>408</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="D187" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="E187" s="11" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" ht="75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B188" s="5" t="s">
-        <v>409</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="D188" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="E188" s="11" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B189" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="D189" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="E189" s="11" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B190" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="D190" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="E190" s="11" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B191" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="D191" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="E191" s="11" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B192" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="D192" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="E192" s="11" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" ht="195" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B193" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="D193" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="E193" s="11" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B194" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="D194" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="E194" s="11" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B195" s="5" t="s">
-        <v>432</v>
-      </c>
-      <c r="C195" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="D195" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="E195" s="11" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" ht="75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B196" s="5" t="s">
-        <v>426</v>
-      </c>
-      <c r="C196" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="D196" s="2" t="s">
-        <v>436</v>
-      </c>
       <c r="E196" s="11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="197" spans="1:5" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B197" s="5" t="s">
-        <v>427</v>
+        <v>404</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="D197" s="2" t="s">
-        <v>438</v>
+        <v>411</v>
       </c>
       <c r="E197" s="11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="198" spans="1:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B198" s="5" t="s">
-        <v>428</v>
+        <v>407</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>439</v>
+        <v>410</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="E198" s="11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="199" spans="1:5" ht="75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B199" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="E199" s="11" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B200" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="E200" s="11" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B201" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="E201" s="11" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B202" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="E202" s="11" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B203" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="E203" s="11" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" ht="195" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B204" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="E204" s="11" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B205" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="E205" s="11" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B206" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="E206" s="11" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" ht="75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B207" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="E207" s="11" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B208" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="E208" s="11" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B209" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="E209" s="11" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" ht="75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B210" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="E210" s="11" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B211" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="C199" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="D199" s="2" t="s">
+      <c r="C211" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="E199" s="11" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B200" s="5" t="s">
+      <c r="D211" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="E211" s="11" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" ht="105" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B212" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="C200" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="D200" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="E200" s="11" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" ht="105" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B201" s="5" t="s">
-        <v>431</v>
-      </c>
-      <c r="C201" s="2" t="s">
+      <c r="C212" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="D212" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="D201" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="E201" s="11" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" ht="75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B202" s="5" t="s">
+      <c r="E212" s="11" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" ht="75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B213" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="C213" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="C202" s="2" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" ht="30.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B203" s="5" t="s">
+    </row>
+    <row r="214" spans="1:5" ht="30.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B214" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="C214" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="C203" s="2" t="s">
+    </row>
+    <row r="215" spans="1:5" s="7" customFormat="1" ht="22.5" customHeight="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A215" s="9" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="204" spans="1:5" s="7" customFormat="1" ht="22.5" customHeight="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A204" s="9" t="s">
+      <c r="B215" s="8"/>
+    </row>
+    <row r="216" spans="1:5" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B216" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="B204" s="8"/>
-    </row>
-    <row r="205" spans="1:5" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B205" s="2" t="s">
+      <c r="C216" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B217" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="C205" s="2" t="s">
+      <c r="C217" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="D217" s="2" t="s">
         <v>517</v>
-      </c>
-      <c r="D205" s="2" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B206" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="D206" s="2" t="s">
-        <v>518</v>
       </c>
     </row>
   </sheetData>

--- a/Библиотека_Robin.xlsx
+++ b/Библиотека_Robin.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$A$220</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$A$221</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A:$E</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="551">
   <si>
     <t>описание</t>
   </si>
@@ -2108,6 +2108,12 @@
   </si>
   <si>
     <t>Цвет шрифта отмеченных строк</t>
+  </si>
+  <si>
+    <t>CreateStandardCommands</t>
+  </si>
+  <si>
+    <t>Создать кнопки и обработчики стандартных команд для грида (add, addcopy, edit, del) на панели</t>
   </si>
 </sst>
 </file>
@@ -2620,11 +2626,11 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E217"/>
+  <dimension ref="A1:E218"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C62" sqref="C62"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -2651,13 +2657,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="7" customFormat="1" ht="22.5" customHeight="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="7" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>83</v>
       </c>
       <c r="B2" s="8"/>
     </row>
-    <row r="3" spans="1:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
       <c r="B3" s="6" t="s">
         <v>16</v>
@@ -2669,7 +2675,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="60" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
       <c r="B4" s="2" t="s">
         <v>1</v>
@@ -2684,7 +2690,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="60" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
       <c r="B5" s="2" t="s">
         <v>3</v>
@@ -2699,7 +2705,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
       <c r="B6" s="2" t="s">
         <v>5</v>
@@ -2714,7 +2720,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
       <c r="B7" s="2" t="s">
         <v>11</v>
@@ -2729,7 +2735,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
       <c r="B8" s="3" t="s">
         <v>13</v>
@@ -2741,7 +2747,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="75" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
       <c r="B9" s="4" t="s">
         <v>15</v>
@@ -2756,7 +2762,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="60" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
       <c r="B10" s="5" t="s">
         <v>17</v>
@@ -2771,7 +2777,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="60" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
       <c r="B11" s="5" t="s">
         <v>19</v>
@@ -2786,7 +2792,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="60" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
       <c r="B12" s="5" t="s">
         <v>20</v>
@@ -2801,7 +2807,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="135" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="135" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="B13" s="5" t="s">
         <v>21</v>
@@ -2816,7 +2822,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="5" t="s">
         <v>23</v>
@@ -2831,7 +2837,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="75" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
       <c r="B15" s="5" t="s">
         <v>25</v>
@@ -2846,7 +2852,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="105" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="105" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
       <c r="B16" s="5" t="s">
         <v>27</v>
@@ -2861,7 +2867,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="120" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="120" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
       <c r="B17" s="5" t="s">
         <v>29</v>
@@ -2876,7 +2882,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="90" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12"/>
       <c r="B18" s="5" t="s">
         <v>31</v>
@@ -2891,1052 +2897,1050 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12"/>
       <c r="B19" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="12"/>
+      <c r="B20" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="E19" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="12"/>
-    </row>
-    <row r="21" spans="1:5" s="7" customFormat="1" ht="22.5" customHeight="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="9" t="s">
+      <c r="E20" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="12"/>
+    </row>
+    <row r="22" spans="1:5" s="7" customFormat="1" ht="22.5" customHeight="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="B21" s="8"/>
-    </row>
-    <row r="22" spans="1:5" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>69</v>
-      </c>
+      <c r="B22" s="8"/>
     </row>
     <row r="23" spans="1:5" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B23" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="6" t="s">
+    <row r="25" spans="1:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="6" t="s">
+    <row r="26" spans="1:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
+    <row r="27" spans="1:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="E26" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>2</v>
+      <c r="E27" s="10" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>14</v>
+        <v>68</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>462</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>66</v>
+        <v>108</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>462</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>461</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="33" spans="2:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="3" t="s">
-        <v>54</v>
+      <c r="B33" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>14</v>
+        <v>65</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="34" spans="2:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E34" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="4" t="s">
+      <c r="E35" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E35" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" ht="105" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="4" t="s">
+      <c r="E36" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" ht="105" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E36" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="4" t="s">
+      <c r="E37" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D38" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E37" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="4" t="s">
+      <c r="E38" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E38" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="4" t="s">
+      <c r="E39" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C40" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D40" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E39" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" ht="135" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="4" t="s">
+      <c r="E40" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" ht="135" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D41" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="E40" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="4" t="s">
+      <c r="E41" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C42" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D42" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E41" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="5" t="s">
+      <c r="E42" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C43" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D43" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E42" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" ht="75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="5" t="s">
+      <c r="E43" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" ht="75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C44" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D44" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E43" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" ht="105" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="5" t="s">
+      <c r="E44" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" ht="105" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="5" t="s">
         <v>524</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C45" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D45" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="2:5" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:5" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B46" s="5" t="s">
-        <v>525</v>
+        <v>103</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>526</v>
+        <v>116</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>527</v>
+        <v>104</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="2:5" ht="75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:5" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B47" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" ht="75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C48" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D48" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="E47" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="5" t="s">
+      <c r="E48" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C49" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D49" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E48" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="5" t="s">
+      <c r="E49" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C50" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D50" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E49" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="51" spans="1:5" s="7" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="9" t="s">
+      <c r="E50" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="1:5" s="7" customFormat="1" ht="22.5" customHeight="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B51" s="8"/>
-    </row>
-    <row r="52" spans="1:5" ht="45" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="8"/>
+    </row>
+    <row r="53" spans="1:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C53" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D53" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="45" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="6" t="s">
+    <row r="54" spans="1:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C54" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="D54" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="75" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="2" t="s">
+    <row r="55" spans="1:5" ht="75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C55" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D55" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="E55" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="135" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="2" t="s">
+    <row r="56" spans="1:5" ht="135" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C56" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="D56" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="E55" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="45" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="3" t="s">
+      <c r="E56" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C57" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="E56" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="60" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="3" t="s">
+      <c r="E57" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C58" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D58" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="E57" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="3" t="s">
+      <c r="E58" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C59" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="E58" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="45" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="3" t="s">
+      <c r="E59" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C60" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D60" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="E59" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="3" t="s">
+      <c r="E60" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C61" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="E60" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="3" t="s">
+      <c r="E61" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C62" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="E61" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="3" t="s">
+      <c r="E62" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C63" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="E62" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="3" t="s">
+      <c r="E63" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C64" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="E63" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="3" t="s">
+      <c r="E64" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C65" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E64" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="3" t="s">
+      <c r="E65" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C66" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="E65" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5" ht="45" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="3" t="s">
+      <c r="E66" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C67" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="D67" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="E66" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="67" spans="2:5" ht="45" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="3" t="s">
+      <c r="E67" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C68" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="D68" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="E67" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5" ht="45" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="3" t="s">
+      <c r="E68" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C69" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="D69" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="E68" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="69" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="3" t="s">
+      <c r="E69" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C70" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="E69" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="70" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="3" t="s">
+      <c r="E70" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C71" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="E70" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="71" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="3" t="s">
+      <c r="E71" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C72" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="E71" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="72" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="3" t="s">
+      <c r="E72" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C73" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="E72" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="73" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="3" t="s">
+      <c r="E73" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C74" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="E73" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="74" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="3" t="s">
+      <c r="E74" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="3" t="s">
         <v>541</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C75" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="E74" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="75" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="3" t="s">
+      <c r="E75" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C76" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="E75" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="76" spans="2:5" ht="120" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="4" t="s">
+      <c r="E76" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" ht="120" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C77" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="D77" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="E76" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="77" spans="2:5" ht="150" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="4" t="s">
+      <c r="E77" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" ht="150" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C78" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D77" s="2" t="s">
+      <c r="D78" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E77" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="78" spans="2:5" ht="60" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="4" t="s">
+      <c r="E78" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C79" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="D79" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="E78" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="79" spans="2:5" ht="75" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="4" t="s">
+      <c r="E79" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" ht="75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C80" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D79" s="2" t="s">
+      <c r="D80" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E79" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="80" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="4" t="s">
+      <c r="E80" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="4" t="s">
         <v>528</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C81" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="D80" s="2" t="s">
+      <c r="D81" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="E80" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="81" spans="2:5" ht="120" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="5" t="s">
+      <c r="E81" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" ht="120" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C82" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D81" s="2" t="s">
+      <c r="D82" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E81" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="82" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="5" t="s">
+      <c r="E82" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C83" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="D82" s="2" t="s">
+      <c r="D83" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="E82" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="83" spans="2:5" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="5" t="s">
+      <c r="E83" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C84" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="D84" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="2:5" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>198</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B85" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="C86" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D85" s="2" t="s">
+      <c r="D86" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="E85" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="86" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="5" t="s">
+      <c r="E86" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="C87" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D86" s="2" t="s">
+      <c r="D87" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="E86" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="87" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="5" t="s">
+      <c r="E87" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="5" t="s">
         <v>447</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="C88" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="D87" s="2" t="s">
+      <c r="D88" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="E87" s="10"/>
-    </row>
-    <row r="88" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="5" t="s">
+      <c r="E88" s="10"/>
+    </row>
+    <row r="89" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="C89" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="E88" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="89" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="5" t="s">
+      <c r="E89" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="C90" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="E89" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="90" spans="2:5" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="5" t="s">
+      <c r="E90" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="C91" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="E90" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="91" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="5" t="s">
+      <c r="E91" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="C92" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="E91" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="92" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="5" t="s">
+      <c r="E92" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="C93" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="D92" s="2" t="s">
+      <c r="D93" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="E92" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="93" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="5" t="s">
+      <c r="E93" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="C94" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="E93" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="94" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="5" t="s">
+      <c r="E94" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="C95" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="E94" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="95" spans="2:5" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="5" t="s">
+      <c r="E95" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="C96" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E95" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="96" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="5" t="s">
+      <c r="E96" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="C97" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="E96" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="45" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="5" t="s">
+      <c r="E97" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="C98" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="D97" s="2" t="s">
+      <c r="D98" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="E97" s="10" t="s">
+      <c r="E98" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="99" spans="1:5" s="7" customFormat="1" ht="22.5" customHeight="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="9" t="s">
+    <row r="99" spans="1:5" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="100" spans="1:5" s="7" customFormat="1" ht="22.5" customHeight="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="B99" s="8"/>
-    </row>
-    <row r="100" spans="1:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="6" t="s">
+      <c r="B100" s="8"/>
+    </row>
+    <row r="101" spans="1:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="C100" s="2" t="s">
+      <c r="C101" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="D100" s="2" t="s">
+      <c r="D101" s="2" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="2" t="s">
+    <row r="102" spans="1:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="C102" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="D101" s="2" t="s">
+      <c r="D102" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="E101" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="2" t="s">
+      <c r="E102" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="C103" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="D102" s="2" t="s">
+      <c r="D103" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="E102" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" ht="105" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="2" t="s">
+      <c r="E103" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="105" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B104" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="C104" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="D103" s="2" t="s">
+      <c r="D104" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="E103" s="2" t="s">
+      <c r="E104" s="2" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B105" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>214</v>
@@ -3944,13 +3948,13 @@
     </row>
     <row r="106" spans="1:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B106" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>214</v>
@@ -3958,13 +3962,13 @@
     </row>
     <row r="107" spans="1:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B107" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>214</v>
@@ -3972,591 +3976,591 @@
     </row>
     <row r="108" spans="1:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B108" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B109" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="3" t="s">
+    <row r="110" spans="1:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B110" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B111" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C110" s="2" t="s">
+      <c r="C111" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="D110" s="2" t="s">
+      <c r="D111" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="E110" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="3" t="s">
+      <c r="E111" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B112" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="C111" s="2" t="s">
+      <c r="C112" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="E111" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="3" t="s">
+      <c r="E112" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="113" spans="2:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B113" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="C112" s="2" t="s">
+      <c r="C113" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="E112" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="3" t="s">
+      <c r="E113" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="114" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B114" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="C113" s="2" t="s">
+      <c r="C114" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="E113" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="3" t="s">
+      <c r="E114" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="115" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B115" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="C114" s="2" t="s">
+      <c r="C115" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="E114" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="3" t="s">
+      <c r="E115" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="116" spans="2:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B116" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="C115" s="2" t="s">
+      <c r="C116" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="E115" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="3" t="s">
+      <c r="E116" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="117" spans="2:5" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B117" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="C116" s="2" t="s">
+      <c r="C117" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="D116" s="2" t="s">
+      <c r="D117" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="E116" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B117" s="4" t="s">
+      <c r="E117" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="118" spans="2:5" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B118" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="C117" s="2" t="s">
+      <c r="C118" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="D117" s="2" t="s">
+      <c r="D118" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="E117" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="4" t="s">
+      <c r="E118" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="119" spans="2:5" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B119" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="C118" s="2" t="s">
+      <c r="C119" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="D118" s="2" t="s">
+      <c r="D119" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="E118" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" ht="120" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="4" t="s">
+      <c r="E119" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="120" spans="2:5" ht="120" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B120" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C119" s="2" t="s">
+      <c r="C120" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="D119" s="2" t="s">
+      <c r="D120" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="E119" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" ht="240" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B120" s="4" t="s">
+      <c r="E120" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="121" spans="2:5" ht="240" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B121" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C120" s="2" t="s">
+      <c r="C121" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="D120" s="2" t="s">
+      <c r="D121" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="E120" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B121" s="4" t="s">
+      <c r="E121" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="122" spans="2:5" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B122" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="C121" s="2" t="s">
+      <c r="C122" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="D121" s="2" t="s">
+      <c r="D122" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="E121" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B122" s="4" t="s">
+      <c r="E122" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="123" spans="2:5" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B123" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="C122" s="2" t="s">
+      <c r="C123" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="D122" s="2" t="s">
+      <c r="D123" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="E122" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" ht="150" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B123" s="4" t="s">
+      <c r="E123" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="124" spans="2:5" ht="150" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B124" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="C123" s="2" t="s">
+      <c r="C124" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="D123" s="2" t="s">
+      <c r="D124" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="E123" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" ht="315" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B124" s="4" t="s">
+      <c r="E124" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="125" spans="2:5" ht="315" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B125" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="C124" s="2" t="s">
+      <c r="C125" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="D124" s="2" t="s">
+      <c r="D125" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="E124" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" ht="165" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B125" s="5" t="s">
+      <c r="E125" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="126" spans="2:5" ht="165" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B126" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="C125" s="2" t="s">
+      <c r="C126" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="D125" s="2" t="s">
+      <c r="D126" s="2" t="s">
         <v>261</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" ht="165" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B126" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>478</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="128" spans="1:5" s="7" customFormat="1" ht="22.5" customHeight="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="9" t="s">
+    <row r="127" spans="2:5" ht="165" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B127" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="2:5" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="129" spans="1:5" s="7" customFormat="1" ht="22.5" customHeight="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="B128" s="8"/>
-    </row>
-    <row r="129" spans="2:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B129" s="6" t="s">
+      <c r="B129" s="8"/>
+    </row>
+    <row r="130" spans="1:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B130" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="C129" s="2" t="s">
+      <c r="C130" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="D129" s="2" t="s">
+      <c r="D130" s="2" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="130" spans="2:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B130" s="6" t="s">
+    <row r="131" spans="1:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B131" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="C130" s="2" t="s">
+      <c r="C131" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="D130" s="2" t="s">
+      <c r="D131" s="2" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="131" spans="2:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B131" s="2" t="s">
+    <row r="132" spans="1:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B132" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C131" s="2" t="s">
+      <c r="C132" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D131" s="2" t="s">
+      <c r="D132" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="E131" s="10" t="s">
+      <c r="E132" s="10" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="132" spans="2:5" ht="75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B132" s="2" t="s">
+    <row r="133" spans="1:5" ht="75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B133" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C132" s="2" t="s">
+      <c r="C133" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="D132" s="2" t="s">
+      <c r="D133" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="E132" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="133" spans="2:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B133" s="2" t="s">
+      <c r="E133" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B134" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="C133" s="2" t="s">
+      <c r="C134" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="D133" s="2" t="s">
+      <c r="D134" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="E133" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="134" spans="2:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="2" t="s">
+      <c r="E134" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B135" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="C134" s="2" t="s">
+      <c r="C135" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="D134" s="2" t="s">
+      <c r="D135" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="E134" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="135" spans="2:5" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B135" s="2" t="s">
+      <c r="E135" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B136" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="C135" s="2" t="s">
+      <c r="C136" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="D135" s="2" t="s">
+      <c r="D136" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="E135" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="136" spans="2:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B136" s="3" t="s">
+      <c r="E136" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B137" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="C136" s="2" t="s">
+      <c r="C137" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="E136" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="137" spans="2:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B137" s="3" t="s">
+      <c r="E137" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B138" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="C137" s="2" t="s">
+      <c r="C138" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="E137" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="138" spans="2:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B138" s="3" t="s">
+      <c r="E138" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B139" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="C138" s="2" t="s">
+      <c r="C139" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="E138" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="139" spans="2:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B139" s="3" t="s">
+      <c r="E139" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B140" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="C139" s="2" t="s">
+      <c r="C140" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="E139" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="140" spans="2:5" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B140" s="3" t="s">
+      <c r="E140" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B141" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="C140" s="2" t="s">
+      <c r="C141" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="D140" s="2" t="s">
+      <c r="D141" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="E140" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="141" spans="2:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B141" s="3" t="s">
+      <c r="E141" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B142" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="C141" s="2" t="s">
+      <c r="C142" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="E141" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="142" spans="2:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B142" s="3" t="s">
+      <c r="E142" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B143" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="C142" s="2" t="s">
+      <c r="C143" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="D142" s="2" t="s">
+      <c r="D143" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="E142" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="143" spans="2:5" ht="105" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B143" s="4" t="s">
+      <c r="E143" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="105" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B144" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="C143" s="2" t="s">
+      <c r="C144" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="D143" s="2" t="s">
+      <c r="D144" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="E143" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="144" spans="2:5" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B144" s="4" t="s">
+      <c r="E144" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B145" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="C144" s="2" t="s">
+      <c r="C145" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="D144" s="2" t="s">
+      <c r="D145" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="E144" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B145" s="4" t="s">
+      <c r="E145" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B146" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="C145" s="2" t="s">
+      <c r="C146" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="D145" s="2" t="s">
+      <c r="D146" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="E145" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B146" s="5" t="s">
+      <c r="E146" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B147" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="C146" s="2" t="s">
+      <c r="C147" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="D146" s="2" t="s">
+      <c r="D147" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="E146" s="2" t="s">
+      <c r="E147" s="2" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="120" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B147" s="5" t="s">
+    <row r="148" spans="1:5" ht="120" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B148" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="C147" s="2" t="s">
+      <c r="C148" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="D147" s="2" t="s">
+      <c r="D148" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="E147" s="2" t="s">
+      <c r="E148" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="30.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B148" s="3" t="s">
+    <row r="149" spans="1:5" ht="30.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B149" s="3" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="149" spans="1:5" s="7" customFormat="1" ht="22.5" customHeight="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="9" t="s">
+    <row r="150" spans="1:5" s="7" customFormat="1" ht="22.5" customHeight="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="B149" s="8"/>
-    </row>
-    <row r="150" spans="1:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B150" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>482</v>
-      </c>
+      <c r="B150" s="8"/>
     </row>
     <row r="151" spans="1:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B151" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B152" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="C151" s="2" t="s">
+      <c r="C152" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D151" s="2" t="s">
+      <c r="D152" s="2" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B152" s="5" t="s">
+    <row r="153" spans="1:5" ht="75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B153" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="C152" s="2" t="s">
+      <c r="C153" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="D152" s="2" t="s">
+      <c r="D153" s="2" t="s">
         <v>480</v>
-      </c>
-      <c r="E152" s="11" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B153" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>481</v>
       </c>
       <c r="E153" s="11" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="105" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B154" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>328</v>
+        <v>481</v>
       </c>
       <c r="E154" s="11" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" ht="105" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B155" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>486</v>
+        <v>328</v>
       </c>
       <c r="E155" s="11" t="s">
         <v>322</v>
@@ -4564,81 +4568,84 @@
     </row>
     <row r="156" spans="1:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B156" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>329</v>
+        <v>486</v>
       </c>
       <c r="E156" s="11" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="158" spans="1:5" s="7" customFormat="1" ht="22.5" customHeight="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="9" t="s">
+    <row r="157" spans="1:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B157" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="E157" s="11" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="159" spans="1:5" s="7" customFormat="1" ht="22.5" customHeight="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="B158" s="8"/>
-    </row>
-    <row r="159" spans="1:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B159" s="6" t="s">
+      <c r="B159" s="8"/>
+    </row>
+    <row r="160" spans="1:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B160" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C159" s="2" t="s">
+      <c r="C160" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="D159" s="2" t="s">
+      <c r="D160" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="E159" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B160" s="2" t="s">
+      <c r="E160" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="161" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B161" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="C160" s="2" t="s">
+      <c r="C161" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="D160" s="2" t="s">
+      <c r="D161" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="E160" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="161" spans="2:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B161" s="2" t="s">
+      <c r="E161" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="162" spans="2:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B162" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="C161" s="2" t="s">
+      <c r="C162" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="E161" s="11" t="s">
+      <c r="E162" s="11" t="s">
         <v>351</v>
-      </c>
-    </row>
-    <row r="162" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B162" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="E162" s="10" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="163" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B163" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E163" s="10" t="s">
         <v>14</v>
@@ -4646,102 +4653,102 @@
     </row>
     <row r="164" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B164" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="E164" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="165" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B165" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="C164" s="2" t="s">
+      <c r="C165" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="E164" s="10" t="s">
+      <c r="E165" s="10" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="165" spans="2:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B165" s="2" t="s">
+    <row r="166" spans="2:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B166" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="C165" s="2" t="s">
+      <c r="C166" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="D165" s="2" t="s">
+      <c r="D166" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="E165" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="166" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B166" s="2" t="s">
+      <c r="E166" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="167" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B167" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="C166" s="2" t="s">
+      <c r="C167" s="2" t="s">
         <v>343</v>
-      </c>
-      <c r="E166" s="10" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="167" spans="2:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B167" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>491</v>
       </c>
       <c r="E167" s="10" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="168" spans="2:5" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B168" s="5" t="s">
+    <row r="168" spans="2:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B168" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="E168" s="10" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="169" spans="2:5" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B169" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C168" s="2" t="s">
+      <c r="C169" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="D168" s="2" t="s">
+      <c r="D169" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="E168" s="6" t="s">
+      <c r="E169" s="6" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="169" spans="2:5" ht="75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B169" s="5" t="s">
+    <row r="170" spans="2:5" ht="75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B170" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="C169" s="2" t="s">
+      <c r="C170" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="D169" s="2" t="s">
+      <c r="D170" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="E169" s="11" t="s">
+      <c r="E170" s="11" t="s">
         <v>322</v>
-      </c>
-    </row>
-    <row r="170" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B170" s="5" t="s">
-        <v>506</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="E170" s="10" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="171" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B171" s="5" t="s">
-        <v>353</v>
+        <v>506</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>354</v>
+        <v>507</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>508</v>
       </c>
       <c r="E171" s="10" t="s">
         <v>14</v>
@@ -4749,46 +4756,46 @@
     </row>
     <row r="172" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B172" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="E172" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="173" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B173" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="C172" s="2" t="s">
+      <c r="C173" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="E172" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="173" spans="2:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B173" s="5" t="s">
+      <c r="E173" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="174" spans="2:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B174" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="C173" s="2" t="s">
+      <c r="C174" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="D173" s="2" t="s">
+      <c r="D174" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="E173" s="11" t="s">
+      <c r="E174" s="11" t="s">
         <v>322</v>
-      </c>
-    </row>
-    <row r="174" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B174" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="E174" s="10" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="175" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B175" s="5" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E175" s="10" t="s">
         <v>14</v>
@@ -4799,32 +4806,32 @@
         <v>366</v>
       </c>
       <c r="C176" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="E176" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="177" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B177" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="C177" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="E176" s="11" t="s">
+      <c r="E177" s="11" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="177" spans="2:5" ht="120" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B177" s="5" t="s">
+    <row r="178" spans="2:5" ht="120" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B178" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="C177" s="2" t="s">
+      <c r="C178" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="D177" s="2" t="s">
+      <c r="D178" s="2" t="s">
         <v>487</v>
-      </c>
-      <c r="E177" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="178" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B178" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>376</v>
       </c>
       <c r="E178" s="10" t="s">
         <v>14</v>
@@ -4832,10 +4839,10 @@
     </row>
     <row r="179" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B179" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E179" s="10" t="s">
         <v>14</v>
@@ -4843,21 +4850,21 @@
     </row>
     <row r="180" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B180" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="E180" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="181" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B181" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="C180" s="2" t="s">
+      <c r="C181" s="2" t="s">
         <v>379</v>
-      </c>
-      <c r="E180" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="181" spans="2:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B181" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>381</v>
       </c>
       <c r="E181" s="10" t="s">
         <v>14</v>
@@ -4865,66 +4872,63 @@
     </row>
     <row r="182" spans="2:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B182" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E182" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="183" spans="2:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B183" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="C182" s="2" t="s">
+      <c r="C183" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="D182" s="2" t="s">
+      <c r="D183" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="E182" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="183" spans="2:5" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B183" s="5" t="s">
+      <c r="E183" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="184" spans="2:5" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B184" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="C183" s="2" t="s">
+      <c r="C184" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="D183" s="2" t="s">
+      <c r="D184" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="E183" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="184" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B184" s="5" t="s">
+      <c r="E184" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="185" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B185" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="C184" s="2" t="s">
+      <c r="C185" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="E184" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="185" spans="2:5" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B185" s="5" t="s">
+      <c r="E185" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="186" spans="2:5" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B186" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="C185" s="2" t="s">
+      <c r="C186" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="D185" s="2" t="s">
+      <c r="D186" s="2" t="s">
         <v>397</v>
-      </c>
-      <c r="E185" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="186" spans="2:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B186" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="D186" s="2" t="s">
-        <v>488</v>
       </c>
       <c r="E186" s="10" t="s">
         <v>14</v>
@@ -4932,165 +4936,165 @@
     </row>
     <row r="187" spans="2:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B187" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="E187" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="188" spans="2:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B188" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C187" s="5" t="s">
+      <c r="C188" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="D187" s="2" t="s">
+      <c r="D188" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="E187" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="188" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B188" s="5" t="s">
+      <c r="E188" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="189" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B189" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="C188" s="2" t="s">
+      <c r="C189" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="E188" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="189" spans="2:5" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B189" s="5" t="s">
+      <c r="E189" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="190" spans="2:5" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B190" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="C189" s="2" t="s">
+      <c r="C190" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="D189" s="2" t="s">
+      <c r="D190" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="E189" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="190" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B190" s="5" t="s">
+      <c r="E190" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="191" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B191" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="C190" s="2" t="s">
+      <c r="C191" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="E190" s="11" t="s">
+      <c r="E191" s="11" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="191" spans="2:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B191" s="5" t="s">
+    <row r="192" spans="2:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B192" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="C191" s="2" t="s">
+      <c r="C192" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="D191" s="2" t="s">
+      <c r="D192" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="E191" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="192" spans="2:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B192" s="5" t="s">
+      <c r="E192" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B193" s="5" t="s">
         <v>521</v>
       </c>
-      <c r="C192" s="2" t="s">
+      <c r="C193" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="D192" s="2" t="s">
+      <c r="D193" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="E192" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="194" spans="1:5" s="7" customFormat="1" ht="22.5" customHeight="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A194" s="9" t="s">
+      <c r="E193" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="195" spans="1:5" s="7" customFormat="1" ht="22.5" customHeight="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A195" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="B194" s="8"/>
-    </row>
-    <row r="195" spans="1:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B195" s="6" t="s">
+      <c r="B195" s="8"/>
+    </row>
+    <row r="196" spans="1:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B196" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="C195" s="2" t="s">
+      <c r="C196" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="D195" s="2" t="s">
+      <c r="D196" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="E195" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B196" s="5" t="s">
+      <c r="E196" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B197" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="C196" s="2" t="s">
+      <c r="C197" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="D196" s="2" t="s">
+      <c r="D197" s="2" t="s">
         <v>406</v>
-      </c>
-      <c r="E196" s="11" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B197" s="5" t="s">
-        <v>404</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>411</v>
       </c>
       <c r="E197" s="11" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="198" spans="1:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B198" s="5" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="D198" s="2" t="s">
-        <v>444</v>
+        <v>411</v>
       </c>
       <c r="E198" s="11" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="199" spans="1:5" ht="75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B199" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>492</v>
+        <v>410</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>493</v>
+        <v>444</v>
       </c>
       <c r="E199" s="11" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="200" spans="1:5" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" ht="75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B200" s="5" t="s">
-        <v>390</v>
+        <v>408</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>414</v>
+        <v>492</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>409</v>
+        <v>493</v>
       </c>
       <c r="E200" s="11" t="s">
         <v>322</v>
@@ -5098,13 +5102,13 @@
     </row>
     <row r="201" spans="1:5" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B201" s="5" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>496</v>
+        <v>409</v>
       </c>
       <c r="E201" s="11" t="s">
         <v>322</v>
@@ -5112,13 +5116,13 @@
     </row>
     <row r="202" spans="1:5" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B202" s="5" t="s">
-        <v>417</v>
+        <v>389</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>420</v>
+        <v>496</v>
       </c>
       <c r="E202" s="11" t="s">
         <v>322</v>
@@ -5126,185 +5130,199 @@
     </row>
     <row r="203" spans="1:5" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B203" s="5" t="s">
-        <v>31</v>
+        <v>417</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>495</v>
+        <v>420</v>
       </c>
       <c r="E203" s="11" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="204" spans="1:5" ht="195" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B204" s="5" t="s">
-        <v>416</v>
+        <v>31</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E204" s="11" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="205" spans="1:5" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" ht="195" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B205" s="5" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>424</v>
+        <v>494</v>
       </c>
       <c r="E205" s="11" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="206" spans="1:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B206" s="5" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="E206" s="11" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="207" spans="1:5" ht="75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B207" s="5" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E207" s="11" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="208" spans="1:5" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" ht="75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B208" s="5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E208" s="11" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="209" spans="1:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B209" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E209" s="11" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="210" spans="1:5" ht="75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B210" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E210" s="11" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="211" spans="1:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" ht="75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B211" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E211" s="11" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="212" spans="1:5" ht="105" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B212" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="E212" s="11" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="213" spans="1:5" ht="75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" ht="105" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B213" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="E213" s="11" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" ht="75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B214" s="5" t="s">
         <v>503</v>
       </c>
-      <c r="C213" s="2" t="s">
+      <c r="C214" s="2" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="214" spans="1:5" ht="30.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B214" s="5" t="s">
+    <row r="215" spans="1:5" ht="30.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B215" s="5" t="s">
         <v>509</v>
       </c>
-      <c r="C214" s="2" t="s">
+      <c r="C215" s="2" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="215" spans="1:5" s="7" customFormat="1" ht="22.5" customHeight="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="9" t="s">
+    <row r="216" spans="1:5" s="7" customFormat="1" ht="22.5" customHeight="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A216" s="9" t="s">
         <v>511</v>
       </c>
-      <c r="B215" s="8"/>
-    </row>
-    <row r="216" spans="1:5" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B216" s="2" t="s">
+      <c r="B216" s="8"/>
+    </row>
+    <row r="217" spans="1:5" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B217" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="C216" s="2" t="s">
+      <c r="C217" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="D216" s="2" t="s">
+      <c r="D217" s="2" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="217" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B217" s="2" t="s">
+    <row r="218" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B218" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="C217" s="2" t="s">
+      <c r="C218" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="D217" s="2" t="s">
+      <c r="D218" s="2" t="s">
         <v>517</v>
       </c>
     </row>
